--- a/Инфраструктура Крона-Банк.xlsx
+++ b/Инфраструктура Крона-Банк.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oit_10\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oit_10\Documents\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="1725" windowWidth="21600" windowHeight="13560" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="5940" yWindow="1725" windowWidth="21600" windowHeight="13560" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="135" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="560">
   <si>
     <t>Имя</t>
   </si>
@@ -1729,6 +1729,18 @@
   </si>
   <si>
     <t>СКУД</t>
+  </si>
+  <si>
+    <t>AX-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNX5100 </t>
+  </si>
+  <si>
+    <t>10.129.130.130</t>
+  </si>
+  <si>
+    <t>Manage</t>
   </si>
 </sst>
 </file>
@@ -5049,8 +5061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5644,6 +5656,9 @@
       <c r="B47" t="s">
         <v>269</v>
       </c>
+      <c r="C47" t="s">
+        <v>557</v>
+      </c>
       <c r="D47" t="s">
         <v>70</v>
       </c>
@@ -5658,6 +5673,9 @@
       <c r="B48" t="s">
         <v>269</v>
       </c>
+      <c r="C48" t="s">
+        <v>557</v>
+      </c>
       <c r="D48" t="s">
         <v>70</v>
       </c>
@@ -5682,6 +5700,9 @@
       </c>
       <c r="B50" t="s">
         <v>510</v>
+      </c>
+      <c r="C50" t="s">
+        <v>556</v>
       </c>
       <c r="D50" t="s">
         <v>70</v>
@@ -5998,10 +6019,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D65"/>
+  <dimension ref="A2:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6475,29 +6496,29 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>428</v>
+        <v>558</v>
       </c>
       <c r="B57" t="s">
-        <v>492</v>
+        <v>559</v>
+      </c>
+      <c r="C57" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B58" t="s">
-        <v>494</v>
-      </c>
-      <c r="C58" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B59" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C59" t="s">
         <v>495</v>
@@ -6505,35 +6526,35 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C60" t="s">
         <v>495</v>
       </c>
-      <c r="D60" t="s">
-        <v>498</v>
-      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B61" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C61" t="s">
         <v>495</v>
       </c>
+      <c r="D61" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B62" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C62" t="s">
         <v>495</v>
@@ -6541,10 +6562,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B63" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C63" t="s">
         <v>495</v>
@@ -6552,23 +6573,34 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B64" t="s">
-        <v>493</v>
-      </c>
-      <c r="D64" t="s">
-        <v>513</v>
+        <v>502</v>
+      </c>
+      <c r="C64" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B65" t="s">
         <v>493</v>
       </c>
       <c r="D65" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>436</v>
+      </c>
+      <c r="B66" t="s">
+        <v>493</v>
+      </c>
+      <c r="D66" t="s">
         <v>512</v>
       </c>
     </row>

--- a/Инфраструктура Крона-Банк.xlsx
+++ b/Инфраструктура Крона-Банк.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="1725" windowWidth="21600" windowHeight="13560" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="5940" yWindow="1725" windowWidth="21600" windowHeight="13560" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="135" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="562">
   <si>
     <t>Имя</t>
   </si>
@@ -1741,6 +1741,12 @@
   </si>
   <si>
     <t>Manage</t>
+  </si>
+  <si>
+    <t>10.129.135.102</t>
+  </si>
+  <si>
+    <t>SG_1</t>
   </si>
 </sst>
 </file>
@@ -5059,10 +5065,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5421,121 +5427,127 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
-        <v>277</v>
+        <v>560</v>
       </c>
       <c r="B28" t="s">
-        <v>292</v>
+        <v>561</v>
       </c>
       <c r="C28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D28" t="s">
-        <v>278</v>
-      </c>
-      <c r="E28" t="s">
-        <v>343</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="B29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C29" t="s">
+        <v>289</v>
+      </c>
+      <c r="D29" t="s">
+        <v>278</v>
+      </c>
+      <c r="E29" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>326</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>545</v>
-      </c>
-      <c r="C30" t="s">
-        <v>289</v>
-      </c>
-      <c r="D30" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="B31" t="s">
-        <v>328</v>
       </c>
       <c r="C31" t="s">
         <v>289</v>
       </c>
+      <c r="D31" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
-        <v>6</v>
+        <v>327</v>
       </c>
       <c r="B32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C32" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>329</v>
+      </c>
+      <c r="C33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>330</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>289</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>331</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>528</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>503</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>332</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>288</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>543</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>333</v>
-      </c>
-      <c r="C36" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C37" t="s">
         <v>529</v>
@@ -5543,7 +5555,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C38" t="s">
         <v>529</v>
@@ -5551,7 +5563,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C39" t="s">
         <v>529</v>
@@ -5559,77 +5571,74 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>336</v>
+      </c>
+      <c r="C40" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>337</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>530</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>503</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>531</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>540</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F41" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="43" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>339</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" t="s">
-        <v>341</v>
-      </c>
-      <c r="C42" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="39" t="s">
-        <v>340</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C43" t="s">
-        <v>289</v>
-      </c>
-      <c r="E43" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
-        <v>16</v>
+        <v>340</v>
       </c>
       <c r="B44" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C44" t="s">
-        <v>288</v>
+        <v>289</v>
+      </c>
+      <c r="E44" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="39" t="s">
-        <v>346</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C45" t="s">
         <v>288</v>
@@ -5637,38 +5646,32 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="B46" t="s">
+        <v>348</v>
+      </c>
+      <c r="C46" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>354</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>289</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>356</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>350</v>
-      </c>
-      <c r="B47" t="s">
-        <v>269</v>
-      </c>
-      <c r="C47" t="s">
-        <v>557</v>
-      </c>
-      <c r="D47" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B48" t="s">
         <v>269</v>
@@ -5684,151 +5687,157 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
+      <c r="A49" t="s">
+        <v>351</v>
+      </c>
+      <c r="B49" t="s">
+        <v>269</v>
+      </c>
+      <c r="C49" t="s">
+        <v>557</v>
+      </c>
+      <c r="D49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>355</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>353</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>510</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>556</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>70</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>515</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" t="s">
-        <v>357</v>
-      </c>
-      <c r="C51" t="s">
-        <v>288</v>
-      </c>
-      <c r="D51" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C52" t="s">
         <v>288</v>
       </c>
       <c r="D52" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="39" t="s">
-        <v>359</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C53" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D53" t="s">
-        <v>525</v>
-      </c>
-      <c r="E53" t="s">
-        <v>345</v>
+        <v>519</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B54" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C54" t="s">
         <v>289</v>
       </c>
+      <c r="D54" t="s">
+        <v>525</v>
+      </c>
+      <c r="E54" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="43" t="s">
-        <v>363</v>
+      <c r="A55" s="39" t="s">
+        <v>360</v>
       </c>
       <c r="B55" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="C55" t="s">
         <v>289</v>
       </c>
-      <c r="E55" t="s">
-        <v>522</v>
-      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B56" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C56" t="s">
         <v>289</v>
       </c>
       <c r="E56" t="s">
-        <v>382</v>
+        <v>522</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="39" t="s">
-        <v>365</v>
+      <c r="A57" s="43" t="s">
+        <v>364</v>
       </c>
       <c r="B57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C57" t="s">
         <v>289</v>
       </c>
-      <c r="D57" t="s">
-        <v>516</v>
-      </c>
-      <c r="E57" s="40" t="s">
-        <v>345</v>
+      <c r="E57" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="39" t="s">
-        <v>22</v>
+        <v>365</v>
       </c>
       <c r="B58" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C58" t="s">
-        <v>288</v>
+        <v>289</v>
+      </c>
+      <c r="D58" t="s">
+        <v>516</v>
+      </c>
+      <c r="E58" s="40" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C59" t="s">
         <v>288</v>
@@ -5836,178 +5845,189 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="39" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B60" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C60" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="43" t="s">
-        <v>366</v>
+      <c r="A61" s="39" t="s">
+        <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C61" t="s">
-        <v>289</v>
-      </c>
-      <c r="D61" t="s">
-        <v>523</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B62" t="s">
-        <v>533</v>
+        <v>386</v>
       </c>
       <c r="C62" t="s">
         <v>289</v>
       </c>
       <c r="D62" t="s">
-        <v>544</v>
-      </c>
-      <c r="E62" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
-        <v>368</v>
+      <c r="A63" s="43" t="s">
+        <v>367</v>
       </c>
       <c r="B63" t="s">
-        <v>387</v>
+        <v>533</v>
       </c>
       <c r="C63" t="s">
         <v>289</v>
       </c>
+      <c r="D63" t="s">
+        <v>544</v>
+      </c>
+      <c r="E63" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="B64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C64" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="39" t="s">
         <v>369</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>542</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>288</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>370</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="43" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="43" t="s">
         <v>371</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>536</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>274</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="39" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="39" t="s">
         <v>372</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>388</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>373</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>537</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>503</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E69" t="s">
         <v>552</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="39" t="s">
-        <v>374</v>
-      </c>
-      <c r="B69" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B70" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="B71" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="39" t="s">
         <v>376</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>389</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="45" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>526</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="39" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>538</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>289</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E74" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="39" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="39" t="s">
         <v>547</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>548</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>288</v>
       </c>
     </row>
@@ -6021,7 +6041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>

--- a/Инфраструктура Крона-Банк.xlsx
+++ b/Инфраструктура Крона-Банк.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="569">
   <si>
     <t>Имя</t>
   </si>
@@ -1677,9 +1677,6 @@
     <t>ICP Electronics</t>
   </si>
   <si>
-    <t>Linux_CentOS(253)_restored?</t>
-  </si>
-  <si>
     <t>Комита</t>
   </si>
   <si>
@@ -1747,6 +1744,30 @@
   </si>
   <si>
     <t>SG_1</t>
+  </si>
+  <si>
+    <t>3I%d&amp;Wko26^G</t>
+  </si>
+  <si>
+    <t>10.129.129.1</t>
+  </si>
+  <si>
+    <t>&amp;V&gt;NL$fI%Z3f</t>
+  </si>
+  <si>
+    <t>esxi</t>
+  </si>
+  <si>
+    <t>10.129.135.103</t>
+  </si>
+  <si>
+    <t>10G</t>
+  </si>
+  <si>
+    <t>esxi222.tcbdomen.trustcombank.ru</t>
+  </si>
+  <si>
+    <t>Miranda_Linux_CentOS(253)</t>
   </si>
 </sst>
 </file>
@@ -3849,7 +3870,7 @@
         <v>255</v>
       </c>
       <c r="G2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>256</v>
@@ -5065,10 +5086,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5078,14 +5099,15 @@
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="39.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
+        <v>553</v>
+      </c>
+      <c r="B1" t="s">
         <v>554</v>
-      </c>
-      <c r="B1" t="s">
-        <v>555</v>
       </c>
       <c r="C1" t="s">
         <v>288</v>
@@ -5338,7 +5360,7 @@
         <v>309</v>
       </c>
       <c r="B21" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C21" t="s">
         <v>289</v>
@@ -5427,10 +5449,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
+        <v>559</v>
+      </c>
+      <c r="B28" t="s">
         <v>560</v>
-      </c>
-      <c r="B28" t="s">
-        <v>561</v>
       </c>
       <c r="C28" t="s">
         <v>288</v>
@@ -5441,121 +5463,130 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
-        <v>277</v>
+        <v>565</v>
       </c>
       <c r="B29" t="s">
-        <v>292</v>
+        <v>560</v>
       </c>
       <c r="C29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D29" t="s">
-        <v>278</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>343</v>
+        <v>566</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="B30" t="s">
+        <v>292</v>
+      </c>
+      <c r="C30" t="s">
+        <v>289</v>
+      </c>
+      <c r="D30" t="s">
+        <v>278</v>
+      </c>
+      <c r="E30" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>326</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="B31" t="s">
-        <v>545</v>
-      </c>
-      <c r="C31" t="s">
-        <v>289</v>
-      </c>
-      <c r="D31" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
-        <v>327</v>
-      </c>
       <c r="B32" t="s">
-        <v>328</v>
+        <v>544</v>
       </c>
       <c r="C32" t="s">
         <v>289</v>
       </c>
+      <c r="D32" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
-        <v>6</v>
+        <v>327</v>
       </c>
       <c r="B33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C33" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>329</v>
+      </c>
+      <c r="C34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>330</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>289</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>331</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>528</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>503</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>332</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>288</v>
       </c>
-      <c r="E36" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>333</v>
-      </c>
-      <c r="C37" t="s">
-        <v>529</v>
+      <c r="E37" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C38" t="s">
         <v>529</v>
@@ -5563,7 +5594,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C39" t="s">
         <v>529</v>
@@ -5571,7 +5602,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C40" t="s">
         <v>529</v>
@@ -5579,77 +5610,74 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>336</v>
+      </c>
+      <c r="C41" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>337</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>530</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>503</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>531</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
+        <v>539</v>
+      </c>
+      <c r="F42" t="s">
         <v>540</v>
       </c>
-      <c r="F41" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>339</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" t="s">
-        <v>341</v>
-      </c>
-      <c r="C43" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
-        <v>340</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C44" t="s">
-        <v>289</v>
-      </c>
-      <c r="E44" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="39" t="s">
-        <v>16</v>
+        <v>340</v>
       </c>
       <c r="B45" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C45" t="s">
-        <v>288</v>
+        <v>289</v>
+      </c>
+      <c r="E45" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="39" t="s">
-        <v>346</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C46" t="s">
         <v>288</v>
@@ -5657,44 +5685,38 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="B47" t="s">
+        <v>348</v>
+      </c>
+      <c r="C47" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>354</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>289</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>350</v>
-      </c>
-      <c r="B48" t="s">
-        <v>269</v>
-      </c>
-      <c r="C48" t="s">
-        <v>557</v>
-      </c>
-      <c r="D48" t="s">
-        <v>70</v>
-      </c>
-      <c r="E48" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>351</v>
       </c>
       <c r="B49" t="s">
         <v>269</v>
       </c>
       <c r="C49" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D49" t="s">
         <v>70</v>
@@ -5703,331 +5725,368 @@
         <v>515</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="39" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>351</v>
+      </c>
+      <c r="B50" t="s">
+        <v>269</v>
+      </c>
+      <c r="C50" t="s">
+        <v>556</v>
+      </c>
+      <c r="D50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>355</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>353</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>510</v>
       </c>
-      <c r="C51" t="s">
-        <v>556</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C52" t="s">
+        <v>555</v>
+      </c>
+      <c r="D52" t="s">
         <v>70</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="39" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>357</v>
-      </c>
-      <c r="C52" t="s">
-        <v>288</v>
-      </c>
-      <c r="D52" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" t="s">
-        <v>358</v>
       </c>
       <c r="C53" t="s">
         <v>288</v>
       </c>
       <c r="D53" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>358</v>
+      </c>
+      <c r="C54" t="s">
+        <v>288</v>
+      </c>
+      <c r="D54" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="39" t="s">
         <v>359</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>361</v>
-      </c>
-      <c r="C54" t="s">
-        <v>289</v>
-      </c>
-      <c r="D54" t="s">
-        <v>525</v>
-      </c>
-      <c r="E54" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="39" t="s">
-        <v>360</v>
-      </c>
-      <c r="B55" t="s">
-        <v>362</v>
       </c>
       <c r="C55" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="43" t="s">
-        <v>363</v>
+      <c r="D55" t="s">
+        <v>525</v>
+      </c>
+      <c r="E55" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="39" t="s">
+        <v>360</v>
       </c>
       <c r="B56" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="C56" t="s">
         <v>289</v>
       </c>
-      <c r="E56" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B57" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C57" t="s">
         <v>289</v>
       </c>
       <c r="E57" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="39" t="s">
-        <v>365</v>
+        <v>522</v>
+      </c>
+      <c r="F57" t="s">
+        <v>563</v>
+      </c>
+      <c r="G57" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="43" t="s">
+        <v>364</v>
       </c>
       <c r="B58" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C58" t="s">
         <v>289</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="B59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C59" t="s">
+        <v>289</v>
+      </c>
+      <c r="D59" t="s">
         <v>516</v>
       </c>
-      <c r="E58" s="40" t="s">
+      <c r="E59" s="40" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="39" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>383</v>
-      </c>
-      <c r="C59" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" t="s">
-        <v>384</v>
       </c>
       <c r="C60" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="39" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C61" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="43" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" t="s">
+        <v>567</v>
+      </c>
+      <c r="C62" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="39"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" t="s">
+        <v>385</v>
+      </c>
+      <c r="C64" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="43" t="s">
         <v>366</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B65" t="s">
         <v>386</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C65" t="s">
         <v>289</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D65" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="43" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="43" t="s">
         <v>367</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B66" t="s">
         <v>533</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C66" t="s">
         <v>289</v>
       </c>
-      <c r="D63" t="s">
-        <v>544</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="D66" t="s">
+        <v>543</v>
+      </c>
+      <c r="E66" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="39" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B67" t="s">
         <v>387</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C67" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="39" t="s">
-        <v>369</v>
-      </c>
-      <c r="B65" t="s">
-        <v>542</v>
-      </c>
-      <c r="C65" t="s">
-        <v>288</v>
-      </c>
-      <c r="D65" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>370</v>
-      </c>
-      <c r="B66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="43" t="s">
-        <v>371</v>
-      </c>
-      <c r="B67" t="s">
-        <v>536</v>
-      </c>
-      <c r="D67" t="s">
-        <v>274</v>
-      </c>
-      <c r="E67" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="39" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B68" t="s">
-        <v>388</v>
+        <v>541</v>
       </c>
       <c r="C68" t="s">
-        <v>289</v>
+        <v>288</v>
+      </c>
+      <c r="D68" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B69" t="s">
-        <v>537</v>
-      </c>
-      <c r="C69" t="s">
-        <v>503</v>
-      </c>
-      <c r="E69" t="s">
-        <v>552</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="39" t="s">
-        <v>374</v>
+      <c r="A70" s="43" t="s">
+        <v>371</v>
       </c>
       <c r="B70" t="s">
-        <v>508</v>
+        <v>536</v>
+      </c>
+      <c r="D70" t="s">
+        <v>274</v>
+      </c>
+      <c r="E70" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="39" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B71" t="s">
-        <v>509</v>
+        <v>388</v>
+      </c>
+      <c r="C71" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="39" t="s">
-        <v>376</v>
+      <c r="A72" t="s">
+        <v>373</v>
       </c>
       <c r="B72" t="s">
-        <v>389</v>
+        <v>537</v>
       </c>
       <c r="C72" t="s">
-        <v>289</v>
+        <v>503</v>
+      </c>
+      <c r="E72" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="45" t="s">
-        <v>377</v>
+      <c r="A73" s="39" t="s">
+        <v>374</v>
       </c>
       <c r="B73" t="s">
-        <v>526</v>
-      </c>
-      <c r="D73" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="B74" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="B75" t="s">
+        <v>389</v>
+      </c>
+      <c r="C75" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="B76" t="s">
+        <v>526</v>
+      </c>
+      <c r="D76" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="B74" t="s">
-        <v>538</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B77" t="s">
+        <v>568</v>
+      </c>
+      <c r="C77" t="s">
         <v>289</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E77" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="39" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="39" t="s">
+        <v>546</v>
+      </c>
+      <c r="B79" t="s">
         <v>547</v>
       </c>
-      <c r="B76" t="s">
-        <v>548</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="C79" t="s">
         <v>288</v>
       </c>
     </row>
@@ -6042,14 +6101,14 @@
   <dimension ref="A2:D66"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6412,10 +6471,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>548</v>
+      </c>
+      <c r="B44" t="s">
         <v>549</v>
-      </c>
-      <c r="B44" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -6423,7 +6482,7 @@
         <v>176</v>
       </c>
       <c r="B45" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -6465,6 +6524,12 @@
       <c r="B50" t="s">
         <v>485</v>
       </c>
+      <c r="C50" t="s">
+        <v>562</v>
+      </c>
+      <c r="D50" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -6516,17 +6581,17 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>557</v>
+      </c>
+      <c r="B57" t="s">
         <v>558</v>
-      </c>
-      <c r="B57" t="s">
-        <v>559</v>
       </c>
       <c r="C57" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="43" t="s">
         <v>428</v>
       </c>
       <c r="B58" t="s">

--- a/Инфраструктура Крона-Банк.xlsx
+++ b/Инфраструктура Крона-Банк.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="1725" windowWidth="21600" windowHeight="13560" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="5940" yWindow="1725" windowWidth="21600" windowHeight="13560" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="135" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="575">
   <si>
     <t>Имя</t>
   </si>
@@ -1768,6 +1768,24 @@
   </si>
   <si>
     <t>Miranda_Linux_CentOS(253)</t>
+  </si>
+  <si>
+    <t>10.129.130.220</t>
+  </si>
+  <si>
+    <t>10.129.130.221</t>
+  </si>
+  <si>
+    <t>10.129.130.223</t>
+  </si>
+  <si>
+    <t>10.129.130.222</t>
+  </si>
+  <si>
+    <t>Ilo ESXi220</t>
+  </si>
+  <si>
+    <t>Ilo ESXi223</t>
   </si>
 </sst>
 </file>
@@ -5088,7 +5106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
@@ -6098,10 +6116,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D66"/>
+  <dimension ref="A2:D72"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6689,6 +6707,32 @@
         <v>512</v>
       </c>
     </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="39" t="s">
+        <v>569</v>
+      </c>
+      <c r="B69" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>571</v>
+      </c>
+      <c r="B72" t="s">
+        <v>574</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Инфраструктура Крона-Банк.xlsx
+++ b/Инфраструктура Крона-Банк.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="577">
   <si>
     <t>Имя</t>
   </si>
@@ -1786,6 +1786,12 @@
   </si>
   <si>
     <t>Ilo ESXi223</t>
+  </si>
+  <si>
+    <t>10.129.135.151</t>
+  </si>
+  <si>
+    <t>Mikrotik_10G_2</t>
   </si>
 </sst>
 </file>
@@ -6116,10 +6122,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D72"/>
+  <dimension ref="A2:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6609,30 +6615,27 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="43" t="s">
+      <c r="A58" t="s">
+        <v>575</v>
+      </c>
+      <c r="B58" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="43" t="s">
         <v>428</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>492</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>429</v>
-      </c>
-      <c r="B59" t="s">
-        <v>494</v>
-      </c>
-      <c r="C59" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B60" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C60" t="s">
         <v>495</v>
@@ -6640,35 +6643,35 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B61" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C61" t="s">
         <v>495</v>
       </c>
-      <c r="D61" t="s">
-        <v>498</v>
-      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B62" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C62" t="s">
         <v>495</v>
       </c>
+      <c r="D62" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B63" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C63" t="s">
         <v>495</v>
@@ -6676,10 +6679,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B64" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C64" t="s">
         <v>495</v>
@@ -6687,49 +6690,60 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B65" t="s">
-        <v>493</v>
-      </c>
-      <c r="D65" t="s">
-        <v>513</v>
+        <v>502</v>
+      </c>
+      <c r="C65" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B66" t="s">
         <v>493</v>
       </c>
       <c r="D66" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>436</v>
+      </c>
+      <c r="B67" t="s">
+        <v>493</v>
+      </c>
+      <c r="D67" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="39" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="39" t="s">
         <v>569</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>573</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>571</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>574</v>
       </c>
     </row>

--- a/Инфраструктура Крона-Банк.xlsx
+++ b/Инфраструктура Крона-Банк.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="1725" windowWidth="21600" windowHeight="13560" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="5940" yWindow="1725" windowWidth="21600" windowHeight="13560" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="135" sheetId="1" r:id="rId1"/>
@@ -5112,8 +5112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6124,7 +6124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>

--- a/Инфраструктура Крона-Банк.xlsx
+++ b/Инфраструктура Крона-Банк.xlsx
@@ -5112,8 +5112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5138,7 +5138,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="39" t="s">
         <v>275</v>
       </c>
       <c r="B2" t="s">
@@ -5778,19 +5778,19 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="37" t="s">
         <v>510</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="37" t="s">
         <v>515</v>
       </c>
     </row>
@@ -6038,7 +6038,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="39" t="s">
         <v>373</v>
       </c>
       <c r="B72" t="s">

--- a/Инфраструктура Крона-Банк.xlsx
+++ b/Инфраструктура Крона-Банк.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="750">
   <si>
     <t>Имя</t>
   </si>
@@ -1089,9 +1089,6 @@
     <t>RSAppServ1.TCBDomen.trustcombank.ru</t>
   </si>
   <si>
-    <t>CentOS 7 (64-bit)</t>
-  </si>
-  <si>
     <t>Ubuntu Linux (64-bit)</t>
   </si>
   <si>
@@ -1680,12 +1677,6 @@
     <t>Комита</t>
   </si>
   <si>
-    <t>Сбербанк</t>
-  </si>
-  <si>
-    <t>LM</t>
-  </si>
-  <si>
     <t>PTKPSD-0 (ПТК)</t>
   </si>
   <si>
@@ -1792,13 +1783,541 @@
   </si>
   <si>
     <t>Mikrotik_10G_2</t>
+  </si>
+  <si>
+    <t>10.129.135.1</t>
+  </si>
+  <si>
+    <t>10.129.135.2</t>
+  </si>
+  <si>
+    <t>10.129.135.3</t>
+  </si>
+  <si>
+    <t>10.129.135.4</t>
+  </si>
+  <si>
+    <t>10.129.135.5</t>
+  </si>
+  <si>
+    <t>10.129.135.6</t>
+  </si>
+  <si>
+    <t>10.129.135.7</t>
+  </si>
+  <si>
+    <t>10.129.135.8</t>
+  </si>
+  <si>
+    <t>10.129.135.9</t>
+  </si>
+  <si>
+    <t>10.129.135.13</t>
+  </si>
+  <si>
+    <t>10.129.135.14</t>
+  </si>
+  <si>
+    <t>10.129.135.15</t>
+  </si>
+  <si>
+    <t>10.129.135.16</t>
+  </si>
+  <si>
+    <t>10.129.135.17</t>
+  </si>
+  <si>
+    <t>10.129.135.18</t>
+  </si>
+  <si>
+    <t>10.129.135.19</t>
+  </si>
+  <si>
+    <t>10.129.135.20</t>
+  </si>
+  <si>
+    <t>10.129.135.21</t>
+  </si>
+  <si>
+    <t>10.129.135.22</t>
+  </si>
+  <si>
+    <t>10.129.135.23</t>
+  </si>
+  <si>
+    <t>10.129.135.24</t>
+  </si>
+  <si>
+    <t>10.129.135.25</t>
+  </si>
+  <si>
+    <t>10.129.135.26</t>
+  </si>
+  <si>
+    <t>10.129.135.27</t>
+  </si>
+  <si>
+    <t>10.129.135.31</t>
+  </si>
+  <si>
+    <t>10.129.135.32</t>
+  </si>
+  <si>
+    <t>10.129.135.33</t>
+  </si>
+  <si>
+    <t>10.129.135.34</t>
+  </si>
+  <si>
+    <t>10.129.135.35</t>
+  </si>
+  <si>
+    <t>10.129.135.36</t>
+  </si>
+  <si>
+    <t>10.129.135.37</t>
+  </si>
+  <si>
+    <t>10.129.135.38</t>
+  </si>
+  <si>
+    <t>10.129.135.39</t>
+  </si>
+  <si>
+    <t>10.129.135.40</t>
+  </si>
+  <si>
+    <t>10.129.135.41</t>
+  </si>
+  <si>
+    <t>10.129.135.42</t>
+  </si>
+  <si>
+    <t>10.129.135.43</t>
+  </si>
+  <si>
+    <t>10.129.135.44</t>
+  </si>
+  <si>
+    <t>10.129.135.45</t>
+  </si>
+  <si>
+    <t>10.129.135.46</t>
+  </si>
+  <si>
+    <t>10.129.135.47</t>
+  </si>
+  <si>
+    <t>10.129.135.48</t>
+  </si>
+  <si>
+    <t>10.129.135.49</t>
+  </si>
+  <si>
+    <t>10.129.135.50</t>
+  </si>
+  <si>
+    <t>10.129.135.51</t>
+  </si>
+  <si>
+    <t>10.129.135.52</t>
+  </si>
+  <si>
+    <t>10.129.135.53</t>
+  </si>
+  <si>
+    <t>10.129.135.54</t>
+  </si>
+  <si>
+    <t>10.129.135.55</t>
+  </si>
+  <si>
+    <t>10.129.135.56</t>
+  </si>
+  <si>
+    <t>10.129.135.57</t>
+  </si>
+  <si>
+    <t>10.129.135.58</t>
+  </si>
+  <si>
+    <t>10.129.135.59</t>
+  </si>
+  <si>
+    <t>10.129.135.70</t>
+  </si>
+  <si>
+    <t>10.129.135.79</t>
+  </si>
+  <si>
+    <t>10.129.135.82</t>
+  </si>
+  <si>
+    <t>10.129.135.83</t>
+  </si>
+  <si>
+    <t>10.129.135.84</t>
+  </si>
+  <si>
+    <t>10.129.135.85</t>
+  </si>
+  <si>
+    <t>10.129.135.86</t>
+  </si>
+  <si>
+    <t>10.129.135.87</t>
+  </si>
+  <si>
+    <t>10.129.135.88</t>
+  </si>
+  <si>
+    <t>10.129.135.89</t>
+  </si>
+  <si>
+    <t>10.129.135.90</t>
+  </si>
+  <si>
+    <t>10.129.135.91</t>
+  </si>
+  <si>
+    <t>10.129.135.92</t>
+  </si>
+  <si>
+    <t>10.129.135.93</t>
+  </si>
+  <si>
+    <t>10.129.135.94</t>
+  </si>
+  <si>
+    <t>10.129.135.95</t>
+  </si>
+  <si>
+    <t>10.129.135.96</t>
+  </si>
+  <si>
+    <t>10.129.135.97</t>
+  </si>
+  <si>
+    <t>10.129.135.99</t>
+  </si>
+  <si>
+    <t>10.129.135.104</t>
+  </si>
+  <si>
+    <t>10.129.135.105</t>
+  </si>
+  <si>
+    <t>10.129.135.106</t>
+  </si>
+  <si>
+    <t>10.129.135.107</t>
+  </si>
+  <si>
+    <t>10.129.135.108</t>
+  </si>
+  <si>
+    <t>10.129.135.109</t>
+  </si>
+  <si>
+    <t>Prod</t>
+  </si>
+  <si>
+    <t>10.129.135.111</t>
+  </si>
+  <si>
+    <t>10.129.135.114</t>
+  </si>
+  <si>
+    <t>10.129.135.115</t>
+  </si>
+  <si>
+    <t>10.129.135.116</t>
+  </si>
+  <si>
+    <t>10.129.135.117</t>
+  </si>
+  <si>
+    <t>10.129.135.118</t>
+  </si>
+  <si>
+    <t>10.129.135.119</t>
+  </si>
+  <si>
+    <t>10.129.135.126</t>
+  </si>
+  <si>
+    <t>10.129.135.127</t>
+  </si>
+  <si>
+    <t>10.129.135.128</t>
+  </si>
+  <si>
+    <t>10.129.135.129</t>
+  </si>
+  <si>
+    <t>10.129.135.130</t>
+  </si>
+  <si>
+    <t>10.129.135.135</t>
+  </si>
+  <si>
+    <t>10.129.135.136</t>
+  </si>
+  <si>
+    <t>10.129.135.137</t>
+  </si>
+  <si>
+    <t>10.129.135.138</t>
+  </si>
+  <si>
+    <t>10.129.135.139</t>
+  </si>
+  <si>
+    <t>10.129.135.141</t>
+  </si>
+  <si>
+    <t>10.129.135.142</t>
+  </si>
+  <si>
+    <t>10.129.135.143</t>
+  </si>
+  <si>
+    <t>10.129.135.144</t>
+  </si>
+  <si>
+    <t>10.129.135.145</t>
+  </si>
+  <si>
+    <t>10.129.135.146</t>
+  </si>
+  <si>
+    <t>10.129.135.147</t>
+  </si>
+  <si>
+    <t>10.129.135.148</t>
+  </si>
+  <si>
+    <t>10.129.135.149</t>
+  </si>
+  <si>
+    <t>10.129.135.150</t>
+  </si>
+  <si>
+    <t>10.129.135.152</t>
+  </si>
+  <si>
+    <t>10.129.135.153</t>
+  </si>
+  <si>
+    <t>10.129.135.154</t>
+  </si>
+  <si>
+    <t>10.129.135.155</t>
+  </si>
+  <si>
+    <t>10.129.135.156</t>
+  </si>
+  <si>
+    <t>10.129.135.158</t>
+  </si>
+  <si>
+    <t>10.129.135.159</t>
+  </si>
+  <si>
+    <t>10.129.135.160</t>
+  </si>
+  <si>
+    <t>10.129.135.163</t>
+  </si>
+  <si>
+    <t>10.129.135.166</t>
+  </si>
+  <si>
+    <t>10.129.135.167</t>
+  </si>
+  <si>
+    <t>10.129.135.168</t>
+  </si>
+  <si>
+    <t>10.129.135.169</t>
+  </si>
+  <si>
+    <t>10.129.135.170</t>
+  </si>
+  <si>
+    <t>10.129.135.171</t>
+  </si>
+  <si>
+    <t>10.129.135.172</t>
+  </si>
+  <si>
+    <t>10.129.135.173</t>
+  </si>
+  <si>
+    <t>10.129.135.174</t>
+  </si>
+  <si>
+    <t>10.129.135.176</t>
+  </si>
+  <si>
+    <t>10.129.135.177</t>
+  </si>
+  <si>
+    <t>10.129.135.180</t>
+  </si>
+  <si>
+    <t>10.129.135.181</t>
+  </si>
+  <si>
+    <t>10.129.135.183</t>
+  </si>
+  <si>
+    <t>10.129.135.184</t>
+  </si>
+  <si>
+    <t>10.129.135.185</t>
+  </si>
+  <si>
+    <t>10.129.135.186</t>
+  </si>
+  <si>
+    <t>10.129.135.187</t>
+  </si>
+  <si>
+    <t>10.129.135.188</t>
+  </si>
+  <si>
+    <t>10.129.135.189</t>
+  </si>
+  <si>
+    <t>10.129.135.190</t>
+  </si>
+  <si>
+    <t>10.129.135.191</t>
+  </si>
+  <si>
+    <t>10.129.135.192</t>
+  </si>
+  <si>
+    <t>10.129.135.193</t>
+  </si>
+  <si>
+    <t>10.129.135.194</t>
+  </si>
+  <si>
+    <t>10.129.135.195</t>
+  </si>
+  <si>
+    <t>10.129.135.196</t>
+  </si>
+  <si>
+    <t>10.129.135.197</t>
+  </si>
+  <si>
+    <t>10.129.135.201</t>
+  </si>
+  <si>
+    <t>10.129.135.202</t>
+  </si>
+  <si>
+    <t>10.129.135.203</t>
+  </si>
+  <si>
+    <t>10.129.135.204</t>
+  </si>
+  <si>
+    <t>10.129.135.207</t>
+  </si>
+  <si>
+    <t>10.129.135.208</t>
+  </si>
+  <si>
+    <t>10.129.135.209</t>
+  </si>
+  <si>
+    <t>10.129.135.210</t>
+  </si>
+  <si>
+    <t>10.129.135.213</t>
+  </si>
+  <si>
+    <t>10.129.135.214</t>
+  </si>
+  <si>
+    <t>10.129.135.216</t>
+  </si>
+  <si>
+    <t>10.129.135.217</t>
+  </si>
+  <si>
+    <t>10.129.135.218</t>
+  </si>
+  <si>
+    <t>10.129.135.219</t>
+  </si>
+  <si>
+    <t>10.129.135.223</t>
+  </si>
+  <si>
+    <t>10.129.135.224</t>
+  </si>
+  <si>
+    <t>10.129.135.226</t>
+  </si>
+  <si>
+    <t>10.129.135.227</t>
+  </si>
+  <si>
+    <t>10.129.135.228</t>
+  </si>
+  <si>
+    <t>10.129.135.229</t>
+  </si>
+  <si>
+    <t>10.129.135.232</t>
+  </si>
+  <si>
+    <t>10.129.135.233</t>
+  </si>
+  <si>
+    <t>10.129.135.234</t>
+  </si>
+  <si>
+    <t>10.129.135.236</t>
+  </si>
+  <si>
+    <t>10.129.135.237</t>
+  </si>
+  <si>
+    <t>10.129.135.239</t>
+  </si>
+  <si>
+    <t>10.129.135.242</t>
+  </si>
+  <si>
+    <t>10.129.135.245</t>
+  </si>
+  <si>
+    <t>10.129.135.250</t>
+  </si>
+  <si>
+    <t>10.129.135.251</t>
+  </si>
+  <si>
+    <t>10.129.135.252</t>
+  </si>
+  <si>
+    <t>10.129.135.254</t>
+  </si>
+  <si>
+    <t>10.129.135.123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1995,13 +2514,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF666666"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2015,7 +2527,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2243,6 +2755,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -2419,7 +2937,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2482,10 +3000,22 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3518,7 +4048,7 @@
         <v>122</v>
       </c>
       <c r="H3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3894,7 +4424,7 @@
         <v>255</v>
       </c>
       <c r="G2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>256</v>
@@ -5110,10 +5640,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A2:G256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5122,916 +5652,498 @@
     <col min="2" max="2" width="42.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="39.28515625" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" style="48" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>553</v>
-      </c>
-      <c r="B1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>550</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>551</v>
+      </c>
+      <c r="C11" s="45" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="E11" s="49"/>
+    </row>
+    <row r="12" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B12" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C12" s="46" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="E12" s="50"/>
+    </row>
+    <row r="13" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B13" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C13" s="46" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="E13" s="50"/>
+    </row>
+    <row r="14" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>583</v>
+      </c>
+      <c r="E14" s="50"/>
+    </row>
+    <row r="15" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>584</v>
+      </c>
+      <c r="E15" s="50"/>
+    </row>
+    <row r="16" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="46" t="s">
+        <v>585</v>
+      </c>
+      <c r="E16" s="50"/>
+    </row>
+    <row r="17" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
+        <v>586</v>
+      </c>
+      <c r="E17" s="50"/>
+    </row>
+    <row r="18" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="46" t="s">
+        <v>587</v>
+      </c>
+      <c r="E18" s="50"/>
+    </row>
+    <row r="19" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="46" t="s">
+        <v>588</v>
+      </c>
+      <c r="E19" s="50"/>
+    </row>
+    <row r="20" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="46" t="s">
+        <v>589</v>
+      </c>
+      <c r="E20" s="50"/>
+    </row>
+    <row r="21" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="46" t="s">
+        <v>590</v>
+      </c>
+      <c r="E21" s="50"/>
+    </row>
+    <row r="22" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="46" t="s">
+        <v>591</v>
+      </c>
+      <c r="E22" s="50"/>
+    </row>
+    <row r="23" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="46" t="s">
+        <v>592</v>
+      </c>
+      <c r="E23" s="50"/>
+    </row>
+    <row r="24" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="46" t="s">
+        <v>593</v>
+      </c>
+      <c r="E24" s="50"/>
+    </row>
+    <row r="25" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
+        <v>594</v>
+      </c>
+      <c r="E25" s="50"/>
+    </row>
+    <row r="26" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="46" t="s">
+        <v>595</v>
+      </c>
+      <c r="E26" s="50"/>
+    </row>
+    <row r="27" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="46" t="s">
+        <v>596</v>
+      </c>
+      <c r="E27" s="50"/>
+    </row>
+    <row r="28" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="46" t="s">
+        <v>597</v>
+      </c>
+      <c r="E28" s="50"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="52" t="s">
         <v>290</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B29" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C29" s="52" t="s">
         <v>288</v>
       </c>
-      <c r="D4" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D29" s="52" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>291</v>
-      </c>
-      <c r="B5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
-        <v>293</v>
-      </c>
-      <c r="B6" t="s">
-        <v>526</v>
-      </c>
-      <c r="C6" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>294</v>
-      </c>
-      <c r="B7" t="s">
-        <v>295</v>
-      </c>
-      <c r="C7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="B8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>521</v>
-      </c>
-      <c r="D8" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="B9" t="s">
-        <v>292</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>521</v>
-      </c>
-      <c r="D9" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>298</v>
-      </c>
-      <c r="B10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>521</v>
-      </c>
-      <c r="D10" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
-        <v>299</v>
-      </c>
-      <c r="B11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>521</v>
-      </c>
-      <c r="D11" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
-        <v>300</v>
-      </c>
-      <c r="B12" t="s">
-        <v>292</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>521</v>
-      </c>
-      <c r="D12" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>301</v>
-      </c>
-      <c r="B13" t="s">
-        <v>292</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>521</v>
-      </c>
-      <c r="D13" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="B14" t="s">
-        <v>292</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>521</v>
-      </c>
-      <c r="D14" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
-        <v>303</v>
-      </c>
-      <c r="B15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>521</v>
-      </c>
-      <c r="D15" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="B16" t="s">
-        <v>316</v>
-      </c>
-      <c r="C16" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="B17" t="s">
-        <v>317</v>
-      </c>
-      <c r="C17" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="B18" t="s">
-        <v>318</v>
-      </c>
-      <c r="C18" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="B19" t="s">
-        <v>292</v>
-      </c>
-      <c r="C19" t="s">
-        <v>289</v>
-      </c>
-      <c r="D19" t="s">
-        <v>520</v>
-      </c>
-      <c r="E19" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="B20" t="s">
-        <v>319</v>
-      </c>
-      <c r="C20" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="B21" t="s">
-        <v>538</v>
-      </c>
-      <c r="C21" t="s">
-        <v>289</v>
-      </c>
-      <c r="D21" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="B22" t="s">
-        <v>320</v>
-      </c>
-      <c r="C22" t="s">
-        <v>289</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>311</v>
-      </c>
-      <c r="B23" t="s">
-        <v>292</v>
-      </c>
-      <c r="C23" t="s">
-        <v>289</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="B24" t="s">
-        <v>321</v>
-      </c>
-      <c r="C24" t="s">
-        <v>288</v>
-      </c>
-      <c r="D24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
-        <v>313</v>
-      </c>
-      <c r="B25" t="s">
-        <v>322</v>
-      </c>
-      <c r="C25" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="E26" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
-        <v>315</v>
-      </c>
-      <c r="B27" t="s">
-        <v>323</v>
-      </c>
-      <c r="C27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
-        <v>559</v>
-      </c>
-      <c r="B28" t="s">
-        <v>560</v>
-      </c>
-      <c r="C28" t="s">
-        <v>288</v>
-      </c>
-      <c r="D28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
-        <v>565</v>
-      </c>
-      <c r="B29" t="s">
-        <v>560</v>
-      </c>
-      <c r="C29" t="s">
-        <v>288</v>
-      </c>
-      <c r="D29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
-        <v>277</v>
       </c>
       <c r="B30" t="s">
         <v>292</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>293</v>
+      </c>
+      <c r="B31" t="s">
+        <v>525</v>
+      </c>
+      <c r="C31" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="B61" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="C61" s="52" t="s">
         <v>289</v>
       </c>
-      <c r="D30" t="s">
-        <v>278</v>
-      </c>
-      <c r="E30" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
-        <v>324</v>
-      </c>
-      <c r="B31" t="s">
-        <v>326</v>
-      </c>
-      <c r="C31" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
-        <v>325</v>
-      </c>
-      <c r="B32" t="s">
-        <v>544</v>
-      </c>
-      <c r="C32" t="s">
-        <v>289</v>
-      </c>
-      <c r="D32" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="B33" t="s">
-        <v>328</v>
-      </c>
-      <c r="C33" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" t="s">
-        <v>329</v>
-      </c>
-      <c r="C34" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" t="s">
-        <v>330</v>
-      </c>
-      <c r="C35" t="s">
-        <v>289</v>
-      </c>
-      <c r="E35" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>331</v>
-      </c>
-      <c r="B36" t="s">
-        <v>528</v>
-      </c>
-      <c r="C36" t="s">
-        <v>503</v>
-      </c>
-      <c r="D36" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" t="s">
-        <v>332</v>
-      </c>
-      <c r="C37" t="s">
-        <v>288</v>
-      </c>
-      <c r="E37" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>333</v>
-      </c>
-      <c r="C38" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>334</v>
-      </c>
-      <c r="C39" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>335</v>
-      </c>
-      <c r="C40" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>336</v>
-      </c>
-      <c r="C41" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>337</v>
-      </c>
-      <c r="B42" t="s">
-        <v>530</v>
-      </c>
-      <c r="C42" t="s">
-        <v>503</v>
-      </c>
-      <c r="D42" t="s">
-        <v>531</v>
-      </c>
-      <c r="E42" t="s">
-        <v>539</v>
-      </c>
-      <c r="F42" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
-        <v>338</v>
-      </c>
-      <c r="B43" t="s">
-        <v>339</v>
-      </c>
-      <c r="C43" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" t="s">
-        <v>341</v>
-      </c>
-      <c r="C44" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="s">
-        <v>340</v>
-      </c>
-      <c r="B45" t="s">
-        <v>344</v>
-      </c>
-      <c r="C45" t="s">
-        <v>289</v>
-      </c>
-      <c r="E45" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" t="s">
-        <v>347</v>
-      </c>
-      <c r="C46" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="B47" t="s">
-        <v>348</v>
-      </c>
-      <c r="C47" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="39" t="s">
-        <v>349</v>
-      </c>
-      <c r="B48" t="s">
-        <v>354</v>
-      </c>
-      <c r="C48" t="s">
-        <v>289</v>
-      </c>
-      <c r="E48" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>350</v>
-      </c>
-      <c r="B49" t="s">
-        <v>269</v>
-      </c>
-      <c r="C49" t="s">
-        <v>556</v>
-      </c>
-      <c r="D49" t="s">
-        <v>70</v>
-      </c>
-      <c r="E49" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>351</v>
-      </c>
-      <c r="B50" t="s">
-        <v>269</v>
-      </c>
-      <c r="C50" t="s">
-        <v>556</v>
-      </c>
-      <c r="D50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="B51" t="s">
-        <v>355</v>
-      </c>
-      <c r="C51" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="B52" s="37" t="s">
-        <v>510</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>555</v>
-      </c>
-      <c r="D52" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" s="37" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" t="s">
-        <v>357</v>
-      </c>
-      <c r="C53" t="s">
-        <v>288</v>
-      </c>
-      <c r="D53" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" t="s">
-        <v>358</v>
-      </c>
-      <c r="C54" t="s">
-        <v>288</v>
-      </c>
-      <c r="D54" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="39" t="s">
-        <v>359</v>
-      </c>
-      <c r="B55" t="s">
-        <v>361</v>
-      </c>
-      <c r="C55" t="s">
-        <v>289</v>
-      </c>
-      <c r="D55" t="s">
-        <v>525</v>
-      </c>
-      <c r="E55" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="39" t="s">
-        <v>360</v>
-      </c>
-      <c r="B56" t="s">
-        <v>362</v>
-      </c>
-      <c r="C56" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="43" t="s">
-        <v>363</v>
-      </c>
-      <c r="B57" t="s">
-        <v>378</v>
-      </c>
-      <c r="C57" t="s">
-        <v>289</v>
-      </c>
-      <c r="E57" t="s">
-        <v>522</v>
-      </c>
-      <c r="F57" t="s">
-        <v>563</v>
-      </c>
-      <c r="G57" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="43" t="s">
-        <v>364</v>
-      </c>
-      <c r="B58" t="s">
-        <v>379</v>
-      </c>
-      <c r="C58" t="s">
-        <v>289</v>
-      </c>
-      <c r="E58" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="39" t="s">
-        <v>365</v>
-      </c>
-      <c r="B59" t="s">
-        <v>380</v>
-      </c>
-      <c r="C59" t="s">
-        <v>289</v>
-      </c>
-      <c r="D59" t="s">
-        <v>516</v>
-      </c>
-      <c r="E59" s="40" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B60" t="s">
-        <v>383</v>
-      </c>
-      <c r="C60" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B61" t="s">
-        <v>384</v>
-      </c>
-      <c r="C61" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="39" t="s">
-        <v>26</v>
+      <c r="D61" s="52"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="43" t="s">
+        <v>296</v>
       </c>
       <c r="B62" t="s">
-        <v>567</v>
-      </c>
-      <c r="C62" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="39" t="s">
-        <v>28</v>
+        <v>292</v>
+      </c>
+      <c r="C62" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="D62" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="B63" t="s">
+        <v>292</v>
+      </c>
+      <c r="C63" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="D63" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="43" t="s">
+        <v>298</v>
       </c>
       <c r="B64" t="s">
-        <v>385</v>
-      </c>
-      <c r="C64" t="s">
-        <v>288</v>
+        <v>292</v>
+      </c>
+      <c r="C64" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="D64" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="43" t="s">
-        <v>366</v>
+        <v>299</v>
       </c>
       <c r="B65" t="s">
-        <v>386</v>
-      </c>
-      <c r="C65" t="s">
-        <v>289</v>
+        <v>292</v>
+      </c>
+      <c r="C65" s="41" t="s">
+        <v>520</v>
       </c>
       <c r="D65" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="43" t="s">
-        <v>367</v>
+        <v>300</v>
       </c>
       <c r="B66" t="s">
-        <v>533</v>
-      </c>
-      <c r="C66" t="s">
-        <v>289</v>
+        <v>292</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>520</v>
       </c>
       <c r="D66" t="s">
-        <v>543</v>
-      </c>
-      <c r="E66" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="39" t="s">
-        <v>368</v>
+      <c r="A67" s="43" t="s">
+        <v>301</v>
       </c>
       <c r="B67" t="s">
-        <v>387</v>
-      </c>
-      <c r="C67" t="s">
-        <v>289</v>
+        <v>292</v>
+      </c>
+      <c r="C67" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="D67" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="39" t="s">
-        <v>369</v>
+      <c r="A68" s="43" t="s">
+        <v>302</v>
       </c>
       <c r="B68" t="s">
-        <v>541</v>
-      </c>
-      <c r="C68" t="s">
-        <v>288</v>
+        <v>292</v>
+      </c>
+      <c r="C68" s="41" t="s">
+        <v>520</v>
       </c>
       <c r="D68" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>370</v>
+      <c r="A69" s="43" t="s">
+        <v>303</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>292</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="D69" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="43" t="s">
-        <v>371</v>
-      </c>
-      <c r="B70" t="s">
-        <v>536</v>
-      </c>
-      <c r="D70" t="s">
-        <v>274</v>
-      </c>
-      <c r="E70" t="s">
-        <v>545</v>
-      </c>
+      <c r="A70" s="45" t="s">
+        <v>627</v>
+      </c>
+      <c r="C70" s="41"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="39" t="s">
-        <v>372</v>
+        <v>304</v>
       </c>
       <c r="B71" t="s">
-        <v>388</v>
+        <v>316</v>
       </c>
       <c r="C71" t="s">
         <v>289</v>
@@ -6039,79 +6151,1470 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="39" t="s">
-        <v>373</v>
+        <v>305</v>
       </c>
       <c r="B72" t="s">
-        <v>537</v>
+        <v>317</v>
       </c>
       <c r="C72" t="s">
-        <v>503</v>
-      </c>
-      <c r="E72" t="s">
-        <v>551</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="39" t="s">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="B73" t="s">
-        <v>508</v>
+        <v>318</v>
+      </c>
+      <c r="C73" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="39" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="B74" t="s">
-        <v>509</v>
+        <v>292</v>
+      </c>
+      <c r="C74" t="s">
+        <v>289</v>
+      </c>
+      <c r="D74" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="39" t="s">
-        <v>376</v>
+        <v>308</v>
       </c>
       <c r="B75" t="s">
-        <v>389</v>
+        <v>319</v>
       </c>
       <c r="C75" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="45" t="s">
-        <v>377</v>
+      <c r="A76" s="39" t="s">
+        <v>309</v>
       </c>
       <c r="B76" t="s">
-        <v>526</v>
+        <v>537</v>
+      </c>
+      <c r="C76" t="s">
+        <v>289</v>
       </c>
       <c r="D76" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="B77" t="s">
-        <v>568</v>
+        <v>320</v>
       </c>
       <c r="C77" t="s">
         <v>289</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="48" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="45" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="B79" t="s">
+        <v>292</v>
+      </c>
+      <c r="C79" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="B80" t="s">
+        <v>321</v>
+      </c>
+      <c r="C80" t="s">
+        <v>288</v>
+      </c>
+      <c r="D80" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="45" t="s">
+        <v>629</v>
+      </c>
+      <c r="B81" s="45"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="45" t="s">
+        <v>630</v>
+      </c>
+      <c r="B82" s="45"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="45" t="s">
+        <v>631</v>
+      </c>
+      <c r="B83" s="45"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="45" t="s">
+        <v>632</v>
+      </c>
+      <c r="B84" s="45"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="45" t="s">
+        <v>633</v>
+      </c>
+      <c r="B85" s="45"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="45" t="s">
+        <v>634</v>
+      </c>
+      <c r="B86" s="45"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="45" t="s">
+        <v>635</v>
+      </c>
+      <c r="B87" s="45"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="45" t="s">
+        <v>636</v>
+      </c>
+      <c r="B88" s="45"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="45" t="s">
+        <v>637</v>
+      </c>
+      <c r="B89" s="45"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="45" t="s">
+        <v>638</v>
+      </c>
+      <c r="B90" s="45"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="45" t="s">
+        <v>639</v>
+      </c>
+      <c r="B91" s="45"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="45" t="s">
+        <v>640</v>
+      </c>
+      <c r="B92" s="45"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="45" t="s">
+        <v>641</v>
+      </c>
+      <c r="B93" s="45"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="45" t="s">
+        <v>642</v>
+      </c>
+      <c r="B94" s="45"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="45" t="s">
+        <v>643</v>
+      </c>
+      <c r="B95" s="45"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="45" t="s">
+        <v>644</v>
+      </c>
+      <c r="B96" s="45"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="B97" t="s">
+        <v>322</v>
+      </c>
+      <c r="C97" t="s">
+        <v>288</v>
+      </c>
+      <c r="E97" s="48" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="45" t="s">
+        <v>645</v>
+      </c>
+      <c r="E98" s="49"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="E99" s="48" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="B100" t="s">
+        <v>323</v>
+      </c>
+      <c r="C100" t="s">
+        <v>288</v>
+      </c>
+      <c r="D100" t="s">
+        <v>70</v>
+      </c>
+      <c r="E100" s="48" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="39" t="s">
+        <v>556</v>
+      </c>
+      <c r="B101" t="s">
+        <v>557</v>
+      </c>
+      <c r="C101" t="s">
+        <v>288</v>
+      </c>
+      <c r="D101" t="s">
+        <v>70</v>
+      </c>
+      <c r="E101" s="48" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="39" t="s">
+        <v>562</v>
+      </c>
+      <c r="B102" t="s">
+        <v>557</v>
+      </c>
+      <c r="C102" t="s">
+        <v>288</v>
+      </c>
+      <c r="D102" t="s">
+        <v>70</v>
+      </c>
+      <c r="E102" s="48" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="45" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="45" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="45" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="45" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="45" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="45" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="B109" t="s">
+        <v>292</v>
+      </c>
+      <c r="C109" t="s">
+        <v>289</v>
+      </c>
+      <c r="D109" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="45" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="B111" t="s">
+        <v>326</v>
+      </c>
+      <c r="C111" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="B112" t="s">
+        <v>541</v>
+      </c>
+      <c r="C112" t="s">
+        <v>289</v>
+      </c>
+      <c r="D112" t="s">
+        <v>274</v>
+      </c>
+      <c r="E112" s="48" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="45" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="45" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="45" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="45" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="45" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="45" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="B119" t="s">
+        <v>328</v>
+      </c>
+      <c r="C119" t="s">
+        <v>289</v>
+      </c>
+      <c r="E119" s="48" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" t="s">
+        <v>329</v>
+      </c>
+      <c r="C120" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>330</v>
+      </c>
+      <c r="C121" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="45" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>331</v>
+      </c>
+      <c r="B123" t="s">
+        <v>527</v>
+      </c>
+      <c r="C123" t="s">
+        <v>502</v>
+      </c>
+      <c r="D123" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" t="s">
+        <v>332</v>
+      </c>
+      <c r="C124" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="45" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="45" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="45" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="45" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="45" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>333</v>
+      </c>
+      <c r="C130" t="s">
+        <v>528</v>
+      </c>
+      <c r="E130" s="48" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>334</v>
+      </c>
+      <c r="C131" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>335</v>
+      </c>
+      <c r="C132" t="s">
+        <v>528</v>
+      </c>
+      <c r="E132" s="48" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>336</v>
+      </c>
+      <c r="C133" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>337</v>
+      </c>
+      <c r="B139" t="s">
+        <v>529</v>
+      </c>
+      <c r="C139" t="s">
+        <v>502</v>
+      </c>
+      <c r="D139" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="B156" t="s">
+        <v>339</v>
+      </c>
+      <c r="C156" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="45" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="45" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="45" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160" s="52" t="s">
+        <v>341</v>
+      </c>
+      <c r="C160" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="D160" s="52"/>
+      <c r="E160" s="53"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="B161" s="52" t="s">
+        <v>343</v>
+      </c>
+      <c r="C161" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D161" s="52"/>
+      <c r="E161" s="53"/>
+    </row>
+    <row r="162" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="45" t="s">
+        <v>688</v>
+      </c>
+      <c r="E162" s="49"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B163" t="s">
+        <v>346</v>
+      </c>
+      <c r="C163" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="B164" t="s">
+        <v>347</v>
+      </c>
+      <c r="C164" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="45" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="45" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="45" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="45" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="45" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="45" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="45" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="45" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="45" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="B174" t="s">
+        <v>353</v>
+      </c>
+      <c r="C174" t="s">
+        <v>289</v>
+      </c>
+      <c r="E174" s="48" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="45" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="45" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>349</v>
+      </c>
+      <c r="B177" t="s">
+        <v>269</v>
+      </c>
+      <c r="C177" t="s">
+        <v>553</v>
+      </c>
+      <c r="D177" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>350</v>
+      </c>
+      <c r="B178" t="s">
+        <v>269</v>
+      </c>
+      <c r="C178" t="s">
+        <v>553</v>
+      </c>
+      <c r="D178" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="52" t="s">
+        <v>351</v>
+      </c>
+      <c r="B181" s="52" t="s">
+        <v>354</v>
+      </c>
+      <c r="C181" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="E181" s="53" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="45" t="s">
+        <v>702</v>
+      </c>
+      <c r="B182" s="45"/>
+      <c r="C182" s="45"/>
+      <c r="D182" s="45"/>
+      <c r="E182" s="49"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="45" t="s">
+        <v>703</v>
+      </c>
+      <c r="B183" s="45"/>
+      <c r="C183" s="45"/>
+      <c r="D183" s="45"/>
+      <c r="E183" s="49"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="45" t="s">
+        <v>704</v>
+      </c>
+      <c r="B184" s="45"/>
+      <c r="C184" s="45"/>
+      <c r="D184" s="45"/>
+      <c r="E184" s="49"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="45" t="s">
+        <v>705</v>
+      </c>
+      <c r="B185" s="45"/>
+      <c r="C185" s="45"/>
+      <c r="D185" s="45"/>
+      <c r="E185" s="49"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="45" t="s">
+        <v>706</v>
+      </c>
+      <c r="B186" s="45"/>
+      <c r="C186" s="45"/>
+      <c r="D186" s="45"/>
+      <c r="E186" s="49"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="45" t="s">
+        <v>707</v>
+      </c>
+      <c r="B187" s="45"/>
+      <c r="C187" s="45"/>
+      <c r="D187" s="45"/>
+      <c r="E187" s="49"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="45" t="s">
+        <v>708</v>
+      </c>
+      <c r="B188" s="45"/>
+      <c r="C188" s="45"/>
+      <c r="D188" s="45"/>
+      <c r="E188" s="49"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="45" t="s">
+        <v>709</v>
+      </c>
+      <c r="B189" s="45"/>
+      <c r="C189" s="45"/>
+      <c r="D189" s="45"/>
+      <c r="E189" s="49"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="45" t="s">
+        <v>710</v>
+      </c>
+      <c r="B190" s="45"/>
+      <c r="C190" s="45"/>
+      <c r="D190" s="45"/>
+      <c r="E190" s="49"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="45" t="s">
+        <v>711</v>
+      </c>
+      <c r="B191" s="45"/>
+      <c r="C191" s="45"/>
+      <c r="D191" s="45"/>
+      <c r="E191" s="49"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="45" t="s">
+        <v>712</v>
+      </c>
+      <c r="B192" s="45"/>
+      <c r="C192" s="45"/>
+      <c r="D192" s="45"/>
+      <c r="E192" s="49"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="45" t="s">
+        <v>713</v>
+      </c>
+      <c r="B193" s="45"/>
+      <c r="C193" s="45"/>
+      <c r="D193" s="45"/>
+      <c r="E193" s="49"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="45" t="s">
+        <v>714</v>
+      </c>
+      <c r="B194" s="45"/>
+      <c r="C194" s="45"/>
+      <c r="D194" s="45"/>
+      <c r="E194" s="49"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="45" t="s">
+        <v>715</v>
+      </c>
+      <c r="B195" s="45"/>
+      <c r="C195" s="45"/>
+      <c r="D195" s="45"/>
+      <c r="E195" s="49"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="B196" s="45"/>
+      <c r="C196" s="45"/>
+      <c r="D196" s="45"/>
+      <c r="E196" s="49"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="B197" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="C197" s="37" t="s">
+        <v>552</v>
+      </c>
+      <c r="D197" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E197" s="51" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B198" t="s">
+        <v>356</v>
+      </c>
+      <c r="C198" t="s">
+        <v>288</v>
+      </c>
+      <c r="D198" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B199" t="s">
+        <v>357</v>
+      </c>
+      <c r="C199" t="s">
+        <v>288</v>
+      </c>
+      <c r="D199" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="45" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="45" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="45" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="45" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="B204" t="s">
+        <v>360</v>
+      </c>
+      <c r="C204" t="s">
+        <v>289</v>
+      </c>
+      <c r="D204" t="s">
+        <v>524</v>
+      </c>
+      <c r="E204" s="49"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="B205" t="s">
+        <v>361</v>
+      </c>
+      <c r="C205" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="45" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="45" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="45" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="45" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="B210" t="s">
+        <v>377</v>
+      </c>
+      <c r="C210" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="B211" t="s">
+        <v>378</v>
+      </c>
+      <c r="C211" t="s">
+        <v>289</v>
+      </c>
+      <c r="E211" s="48" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="45" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="45" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="B214" t="s">
+        <v>379</v>
+      </c>
+      <c r="C214" t="s">
+        <v>289</v>
+      </c>
+      <c r="D214" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="45" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="45" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="45" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="45" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B219" t="s">
+        <v>382</v>
+      </c>
+      <c r="C219" t="s">
+        <v>288</v>
+      </c>
+      <c r="E219" s="48" t="s">
+        <v>521</v>
+      </c>
+      <c r="F219" t="s">
+        <v>560</v>
+      </c>
+      <c r="G219" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B220" t="s">
+        <v>383</v>
+      </c>
+      <c r="C220" t="s">
+        <v>288</v>
+      </c>
+      <c r="E220" s="48" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="39" t="s">
-        <v>546</v>
-      </c>
-      <c r="B79" t="s">
-        <v>547</v>
-      </c>
-      <c r="C79" t="s">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B221" t="s">
+        <v>564</v>
+      </c>
+      <c r="C221" t="s">
         <v>288</v>
+      </c>
+      <c r="E221" s="48" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="45" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="45" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B224" t="s">
+        <v>384</v>
+      </c>
+      <c r="C224" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="45" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="45" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="45" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="45" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B229" t="s">
+        <v>385</v>
+      </c>
+      <c r="C229" t="s">
+        <v>289</v>
+      </c>
+      <c r="D229" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B230" t="s">
+        <v>532</v>
+      </c>
+      <c r="C230" t="s">
+        <v>289</v>
+      </c>
+      <c r="D230" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="45" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="45" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="45" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="B234" t="s">
+        <v>386</v>
+      </c>
+      <c r="C234" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="45" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="45" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="B237" t="s">
+        <v>538</v>
+      </c>
+      <c r="C237" t="s">
+        <v>288</v>
+      </c>
+      <c r="D237" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="45" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>369</v>
+      </c>
+      <c r="B239" t="s">
+        <v>80</v>
+      </c>
+      <c r="E239" s="48" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="B240" t="s">
+        <v>535</v>
+      </c>
+      <c r="D240" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="45" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="B242" t="s">
+        <v>387</v>
+      </c>
+      <c r="C242" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="B243" t="s">
+        <v>536</v>
+      </c>
+      <c r="C243" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="B245" t="s">
+        <v>507</v>
+      </c>
+      <c r="E245" s="48" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="B246" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="B247" t="s">
+        <v>388</v>
+      </c>
+      <c r="C247" t="s">
+        <v>289</v>
+      </c>
+      <c r="E247" s="48" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="B248" t="s">
+        <v>525</v>
+      </c>
+      <c r="D248" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="47" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="47" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="47" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="B252" t="s">
+        <v>565</v>
+      </c>
+      <c r="C252" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="45" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="B255" t="s">
+        <v>544</v>
+      </c>
+      <c r="C255" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E256" s="48" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -6141,10 +7644,10 @@
         <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6152,7 +7655,7 @@
         <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6160,7 +7663,7 @@
         <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6168,26 +7671,26 @@
         <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
+        <v>446</v>
+      </c>
+      <c r="D6" t="s">
         <v>447</v>
-      </c>
-      <c r="D6" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -6198,7 +7701,7 @@
         <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -6206,15 +7709,15 @@
         <v>180</v>
       </c>
       <c r="B9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -6222,55 +7725,55 @@
         <v>192</v>
       </c>
       <c r="B11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6278,10 +7781,10 @@
         <v>147</v>
       </c>
       <c r="B18" t="s">
+        <v>454</v>
+      </c>
+      <c r="D18" t="s">
         <v>455</v>
-      </c>
-      <c r="D18" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -6289,7 +7792,7 @@
         <v>157</v>
       </c>
       <c r="B19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -6297,7 +7800,7 @@
         <v>167</v>
       </c>
       <c r="B20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6305,18 +7808,18 @@
         <v>151</v>
       </c>
       <c r="B21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B22" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -6324,34 +7827,34 @@
         <v>161</v>
       </c>
       <c r="B23" t="s">
+        <v>444</v>
+      </c>
+      <c r="D23" t="s">
         <v>445</v>
-      </c>
-      <c r="D23" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B24" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -6359,146 +7862,146 @@
         <v>164</v>
       </c>
       <c r="B27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B29" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B31" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B32" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B33" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D34" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B35" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B36" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B37" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B38" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B39" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B41" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B42" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B43" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B44" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -6506,93 +8009,93 @@
         <v>176</v>
       </c>
       <c r="B45" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B46" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B47" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B48" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B49" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B50" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C50" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D50" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B51" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B52" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B53" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B55" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -6600,151 +8103,151 @@
         <v>184</v>
       </c>
       <c r="B56" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B57" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C57" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B58" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="43" t="s">
-        <v>428</v>
+      <c r="A59" s="42" t="s">
+        <v>427</v>
       </c>
       <c r="B59" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B60" t="s">
+        <v>493</v>
+      </c>
+      <c r="C60" t="s">
         <v>494</v>
-      </c>
-      <c r="C60" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B61" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C61" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B62" t="s">
+        <v>496</v>
+      </c>
+      <c r="C62" t="s">
+        <v>494</v>
+      </c>
+      <c r="D62" t="s">
         <v>497</v>
-      </c>
-      <c r="C62" t="s">
-        <v>495</v>
-      </c>
-      <c r="D62" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B63" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C63" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B64" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C64" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B65" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C65" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B66" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D66" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B67" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D67" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="39" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B70" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>568</v>
+      </c>
+      <c r="B73" t="s">
         <v>571</v>
-      </c>
-      <c r="B73" t="s">
-        <v>574</v>
       </c>
     </row>
   </sheetData>

--- a/Инфраструктура Крона-Банк.xlsx
+++ b/Инфраструктура Крона-Банк.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="754">
   <si>
     <t>Имя</t>
   </si>
@@ -897,9 +897,6 @@
     <t>10.129.135.110</t>
   </si>
   <si>
-    <t>zabbix</t>
-  </si>
-  <si>
     <t>IRK-HO-EDGE-R2</t>
   </si>
   <si>
@@ -1602,9 +1599,6 @@
     <t>В 130 сеть</t>
   </si>
   <si>
-    <t>Microsoft Windows XP Professional (32-bit)</t>
-  </si>
-  <si>
     <t>нужна XP</t>
   </si>
   <si>
@@ -1752,9 +1746,6 @@
     <t>10.129.135.103</t>
   </si>
   <si>
-    <t>10G</t>
-  </si>
-  <si>
     <t>esxi222.tcbdomen.trustcombank.ru</t>
   </si>
   <si>
@@ -2311,6 +2302,27 @@
   </si>
   <si>
     <t>10.129.135.123</t>
+  </si>
+  <si>
+    <t>wiki</t>
+  </si>
+  <si>
+    <t>helpdesk</t>
+  </si>
+  <si>
+    <t>Win10_for_backup</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>LM</t>
+  </si>
+  <si>
+    <t>Fincert_API(109)</t>
+  </si>
+  <si>
+    <t>только web spere</t>
   </si>
 </sst>
 </file>
@@ -4048,7 +4060,7 @@
         <v>122</v>
       </c>
       <c r="H3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4065,13 +4077,13 @@
         <v>118</v>
       </c>
       <c r="E4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H4" t="s">
         <v>283</v>
-      </c>
-      <c r="F4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H4" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4114,7 +4126,7 @@
         <v>124</v>
       </c>
       <c r="H6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4134,10 +4146,10 @@
         <v>2911</v>
       </c>
       <c r="F7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H7" t="s">
         <v>280</v>
-      </c>
-      <c r="H7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4424,7 +4436,7 @@
         <v>255</v>
       </c>
       <c r="G2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>256</v>
@@ -5642,8 +5654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5658,58 +5670,58 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E11" s="49"/>
     </row>
@@ -5718,537 +5730,555 @@
         <v>275</v>
       </c>
       <c r="B12" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="C12" s="46" t="s">
-        <v>288</v>
+      <c r="D12" s="46" t="s">
+        <v>751</v>
       </c>
       <c r="E12" s="50"/>
     </row>
     <row r="13" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="B13" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="B13" s="46" t="s">
-        <v>286</v>
-      </c>
       <c r="C13" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>751</v>
       </c>
       <c r="E13" s="50"/>
     </row>
     <row r="14" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E14" s="50"/>
     </row>
     <row r="15" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E15" s="50"/>
     </row>
     <row r="16" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E16" s="50"/>
     </row>
     <row r="17" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E17" s="50"/>
     </row>
     <row r="18" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E18" s="50"/>
     </row>
     <row r="19" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="46" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E19" s="50"/>
     </row>
     <row r="20" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="46" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E20" s="50"/>
     </row>
     <row r="21" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="46" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E21" s="50"/>
     </row>
     <row r="22" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="46" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E22" s="50"/>
     </row>
     <row r="23" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="46" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E23" s="50"/>
     </row>
     <row r="24" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="46" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="46" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E25" s="50"/>
     </row>
     <row r="26" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E26" s="50"/>
     </row>
     <row r="27" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E27" s="50"/>
     </row>
     <row r="28" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E28" s="50"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>523</v>
+        <v>521</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>290</v>
+      </c>
+      <c r="B30" t="s">
         <v>291</v>
       </c>
-      <c r="B30" t="s">
-        <v>292</v>
-      </c>
       <c r="D30" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B31" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C31" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="B61" s="52" t="s">
-        <v>295</v>
-      </c>
       <c r="C61" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D61" s="52"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B62" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D62" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B63" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D63" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B64" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D64" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B65" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D65" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D66" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B67" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D67" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B68" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D68" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B69" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D69" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="45" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C70" s="41"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C71" t="s">
-        <v>289</v>
+        <v>288</v>
+      </c>
+      <c r="E71" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C72" t="s">
-        <v>289</v>
+        <v>288</v>
+      </c>
+      <c r="E72" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B73" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C73" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D74" t="s">
-        <v>519</v>
+        <v>517</v>
+      </c>
+      <c r="E74" s="48" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C75" t="s">
-        <v>289</v>
+        <v>288</v>
+      </c>
+      <c r="E75" s="48" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B76" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C76" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D76" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B77" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C77" t="s">
-        <v>289</v>
-      </c>
-      <c r="E77" s="48" t="s">
-        <v>519</v>
+        <v>288</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="45" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B79" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C79" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B80" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C80" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D80" t="s">
         <v>70</v>
@@ -6256,207 +6286,213 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="45" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B81" s="45"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="45" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B82" s="45"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B83" s="45"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B84" s="45"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="45" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B85" s="45"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B86" s="45"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B87" s="45"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B88" s="45"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="45" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B89" s="45"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="45" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B90" s="45"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B91" s="45"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B92" s="45"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="45" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B93" s="45"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="45" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B94" s="45"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="45" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B95" s="45"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="45" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B96" s="45"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B97" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C97" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E97" s="48" t="s">
-        <v>513</v>
+        <v>751</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="45" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E98" s="49"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E99" s="48" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B100" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C100" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D100" t="s">
         <v>70</v>
       </c>
       <c r="E100" s="48" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="39" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B101" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C101" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D101" t="s">
         <v>70</v>
       </c>
       <c r="E101" s="48" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="39" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B102" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C102" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D102" t="s">
         <v>70</v>
       </c>
       <c r="E102" s="48" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="45" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="45" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="45" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="45" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="45" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="45" t="s">
-        <v>651</v>
+        <v>648</v>
+      </c>
+      <c r="B108" t="s">
+        <v>752</v>
+      </c>
+      <c r="C108" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -6464,90 +6500,114 @@
         <v>277</v>
       </c>
       <c r="B109" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C109" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D109" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="45" t="s">
-        <v>653</v>
+        <v>650</v>
+      </c>
+      <c r="B110" t="s">
+        <v>748</v>
+      </c>
+      <c r="C110" t="s">
+        <v>288</v>
+      </c>
+      <c r="D110" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B111" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C111" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B112" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C112" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D112" t="s">
         <v>274</v>
       </c>
-      <c r="E112" s="48" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="45" t="s">
-        <v>654</v>
+        <v>651</v>
+      </c>
+      <c r="B113" t="s">
+        <v>747</v>
+      </c>
+      <c r="C113" t="s">
+        <v>288</v>
+      </c>
+      <c r="D113" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="45" t="s">
-        <v>655</v>
+        <v>652</v>
+      </c>
+      <c r="B114" t="s">
+        <v>749</v>
+      </c>
+      <c r="C114" t="s">
+        <v>288</v>
+      </c>
+      <c r="D114" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="45" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="45" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="45" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="45" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="B119" t="s">
         <v>327</v>
       </c>
-      <c r="B119" t="s">
-        <v>328</v>
-      </c>
       <c r="C119" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E119" s="48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -6555,10 +6615,10 @@
         <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C120" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -6566,26 +6626,26 @@
         <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C121" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="45" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B123" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C123" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D123" t="s">
         <v>274</v>
@@ -6596,218 +6656,218 @@
         <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C124" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="45" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="45" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="45" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="45" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="45" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C130" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E130" s="48" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C131" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C132" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E132" s="48" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C133" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B139" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C139" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D139" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="B156" t="s">
         <v>338</v>
       </c>
-      <c r="B156" t="s">
-        <v>339</v>
-      </c>
       <c r="C156" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="45" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="45" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="45" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -6815,30 +6875,30 @@
         <v>14</v>
       </c>
       <c r="B160" s="52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C160" s="52" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D160" s="52"/>
       <c r="E160" s="53"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="52" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B161" s="52" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C161" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D161" s="52"/>
       <c r="E161" s="53"/>
     </row>
     <row r="162" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="45" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E162" s="49"/>
     </row>
@@ -6847,101 +6907,101 @@
         <v>16</v>
       </c>
       <c r="B163" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C163" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B164" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C164" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="45" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="45" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="45" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="45" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="45" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="45" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="45" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="45" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="45" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B174" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C174" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E174" s="48" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="45" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="45" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B177" t="s">
         <v>269</v>
       </c>
       <c r="C177" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D177" t="s">
         <v>70</v>
@@ -6949,13 +7009,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B178" t="s">
         <v>269</v>
       </c>
       <c r="C178" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D178" t="s">
         <v>70</v>
@@ -6963,31 +7023,31 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="181" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="52" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B181" s="52" t="s">
+        <v>353</v>
+      </c>
+      <c r="C181" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="E181" s="53" t="s">
         <v>354</v>
-      </c>
-      <c r="C181" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="E181" s="53" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="45" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B182" s="45"/>
       <c r="C182" s="45"/>
@@ -6996,7 +7056,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="45" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B183" s="45"/>
       <c r="C183" s="45"/>
@@ -7005,7 +7065,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="45" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B184" s="45"/>
       <c r="C184" s="45"/>
@@ -7014,7 +7074,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="45" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B185" s="45"/>
       <c r="C185" s="45"/>
@@ -7023,7 +7083,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="45" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B186" s="45"/>
       <c r="C186" s="45"/>
@@ -7032,7 +7092,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="45" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B187" s="45"/>
       <c r="C187" s="45"/>
@@ -7041,7 +7101,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="45" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B188" s="45"/>
       <c r="C188" s="45"/>
@@ -7050,7 +7110,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="45" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B189" s="45"/>
       <c r="C189" s="45"/>
@@ -7059,7 +7119,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="45" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B190" s="45"/>
       <c r="C190" s="45"/>
@@ -7068,7 +7128,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="45" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B191" s="45"/>
       <c r="C191" s="45"/>
@@ -7077,7 +7137,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="45" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B192" s="45"/>
       <c r="C192" s="45"/>
@@ -7086,7 +7146,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="45" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B193" s="45"/>
       <c r="C193" s="45"/>
@@ -7095,7 +7155,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="45" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B194" s="45"/>
       <c r="C194" s="45"/>
@@ -7104,7 +7164,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="45" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B195" s="45"/>
       <c r="C195" s="45"/>
@@ -7113,7 +7173,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="45" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B196" s="45"/>
       <c r="C196" s="45"/>
@@ -7122,19 +7182,19 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B197" s="37" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C197" s="37" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D197" s="37" t="s">
         <v>70</v>
       </c>
       <c r="E197" s="51" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -7142,13 +7202,13 @@
         <v>18</v>
       </c>
       <c r="B198" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C198" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D198" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -7156,148 +7216,148 @@
         <v>20</v>
       </c>
       <c r="B199" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C199" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D199" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="45" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="45" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="45" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="45" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B204" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C204" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D204" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E204" s="49"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="39" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B205" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C205" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="45" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="45" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="45" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="45" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B210" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C210" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B211" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C211" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E211" s="48" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="45" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="45" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B214" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C214" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D214" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="45" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="45" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="45" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="45" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -7305,19 +7365,19 @@
         <v>22</v>
       </c>
       <c r="B219" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C219" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E219" s="48" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F219" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G219" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -7325,13 +7385,13 @@
         <v>24</v>
       </c>
       <c r="B220" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C220" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E220" s="48" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -7339,23 +7399,23 @@
         <v>26</v>
       </c>
       <c r="B221" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C221" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E221" s="48" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="45" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="45" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -7363,132 +7423,132 @@
         <v>28</v>
       </c>
       <c r="B224" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C224" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="45" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="45" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="45" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="45" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B229" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C229" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D229" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="42" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B230" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C230" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D230" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="45" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="45" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="45" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B234" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C234" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="45" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="45" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="39" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B237" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C237" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D237" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="45" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B239" t="s">
         <v>80</v>
       </c>
       <c r="E239" s="48" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B240" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D240" t="s">
         <v>274</v>
@@ -7496,93 +7556,93 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="45" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B242" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C242" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B243" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C243" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="45" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B245" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E245" s="48" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B246" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B247" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C247" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E247" s="48" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="44" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B248" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D248" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="47" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="47" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="47" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -7590,31 +7650,31 @@
         <v>276</v>
       </c>
       <c r="B252" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C252" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="45" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="39" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B255" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C255" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E256" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -7627,8 +7687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D73"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7644,10 +7704,10 @@
         <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7655,7 +7715,7 @@
         <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -7663,7 +7723,7 @@
         <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7671,7 +7731,7 @@
         <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7679,18 +7739,18 @@
         <v>154</v>
       </c>
       <c r="B6" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="D6" t="s">
         <v>446</v>
-      </c>
-      <c r="D6" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -7701,7 +7761,7 @@
         <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -7709,15 +7769,15 @@
         <v>180</v>
       </c>
       <c r="B9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -7725,55 +7785,55 @@
         <v>192</v>
       </c>
       <c r="B11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -7781,10 +7841,10 @@
         <v>147</v>
       </c>
       <c r="B18" t="s">
+        <v>453</v>
+      </c>
+      <c r="D18" t="s">
         <v>454</v>
-      </c>
-      <c r="D18" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -7792,7 +7852,7 @@
         <v>157</v>
       </c>
       <c r="B19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7800,7 +7860,7 @@
         <v>167</v>
       </c>
       <c r="B20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -7808,18 +7868,18 @@
         <v>151</v>
       </c>
       <c r="B21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -7827,34 +7887,34 @@
         <v>161</v>
       </c>
       <c r="B23" t="s">
+        <v>443</v>
+      </c>
+      <c r="D23" t="s">
         <v>444</v>
-      </c>
-      <c r="D23" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B24" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -7862,146 +7922,146 @@
         <v>164</v>
       </c>
       <c r="B27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B30" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B31" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B32" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D34" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B35" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B37" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B38" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B39" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B41" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B43" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B44" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -8009,93 +8069,93 @@
         <v>176</v>
       </c>
       <c r="B45" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B46" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B47" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B48" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B49" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C50" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D50" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B51" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B52" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B53" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B54" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B55" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -8103,151 +8163,151 @@
         <v>184</v>
       </c>
       <c r="B56" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B57" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C57" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B58" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="42" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B59" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B60" t="s">
+        <v>492</v>
+      </c>
+      <c r="C60" t="s">
         <v>493</v>
-      </c>
-      <c r="C60" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B61" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C61" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B62" t="s">
+        <v>495</v>
+      </c>
+      <c r="C62" t="s">
+        <v>493</v>
+      </c>
+      <c r="D62" t="s">
         <v>496</v>
-      </c>
-      <c r="C62" t="s">
-        <v>494</v>
-      </c>
-      <c r="D62" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B63" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C63" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B64" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C64" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B65" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C65" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B66" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D66" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B67" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D67" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="39" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B70" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>565</v>
+      </c>
+      <c r="B73" t="s">
         <v>568</v>
-      </c>
-      <c r="B73" t="s">
-        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/Инфраструктура Крона-Банк.xlsx
+++ b/Инфраструктура Крона-Банк.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="758">
   <si>
     <t>Имя</t>
   </si>
@@ -2323,6 +2323,19 @@
   </si>
   <si>
     <t>только web spere</t>
+  </si>
+  <si>
+    <t>Finist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StahanovecDLP
+</t>
+  </si>
+  <si>
+    <t>Windows 10 (64-bit)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -2949,7 +2962,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3028,6 +3041,10 @@
     <xf numFmtId="0" fontId="24" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5654,8 +5671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5723,7 +5740,12 @@
       <c r="C11" s="45" t="s">
         <v>287</v>
       </c>
-      <c r="E11" s="49"/>
+      <c r="D11" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="12" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
@@ -5773,11 +5795,19 @@
       </c>
       <c r="E16" s="50"/>
     </row>
-    <row r="17" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
         <v>583</v>
       </c>
-      <c r="E17" s="50"/>
+      <c r="B17" s="54" t="s">
+        <v>755</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="18" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
@@ -6991,6 +7021,9 @@
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="45" t="s">
         <v>696</v>
+      </c>
+      <c r="B176" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">

--- a/Инфраструктура Крона-Банк.xlsx
+++ b/Инфраструктура Крона-Банк.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="766">
   <si>
     <t>Имя</t>
   </si>
@@ -1605,9 +1605,6 @@
     <t>клиент yandex диск</t>
   </si>
   <si>
-    <t>Oracle Linux 7 (64-bit)</t>
-  </si>
-  <si>
     <t>Домен первый</t>
   </si>
   <si>
@@ -1672,9 +1669,6 @@
   </si>
   <si>
     <t>PTKPSD-0 (ПТК)</t>
-  </si>
-  <si>
-    <t>standby</t>
   </si>
   <si>
     <t>staffcop</t>
@@ -2336,6 +2330,36 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>wl-1</t>
+  </si>
+  <si>
+    <t>wl-2</t>
+  </si>
+  <si>
+    <t>wl-3</t>
+  </si>
+  <si>
+    <t>wl-4</t>
+  </si>
+  <si>
+    <t>wl-5</t>
+  </si>
+  <si>
+    <t>wl-6</t>
+  </si>
+  <si>
+    <t>wl-7</t>
+  </si>
+  <si>
+    <t>wl-8</t>
+  </si>
+  <si>
+    <t>kbr</t>
+  </si>
+  <si>
+    <t>Proxy</t>
   </si>
 </sst>
 </file>
@@ -4453,7 +4477,7 @@
         <v>255</v>
       </c>
       <c r="G2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>256</v>
@@ -5671,8 +5695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5687,64 +5711,64 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>287</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -5758,7 +5782,7 @@
         <v>287</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E12" s="50"/>
     </row>
@@ -5773,105 +5797,105 @@
         <v>288</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E13" s="50"/>
     </row>
     <row r="14" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E14" s="50"/>
     </row>
     <row r="15" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E15" s="50"/>
     </row>
     <row r="16" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E16" s="50"/>
     </row>
     <row r="17" spans="1:5" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C17" s="46" t="s">
         <v>288</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E18" s="50"/>
     </row>
     <row r="19" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="46" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E19" s="50"/>
     </row>
     <row r="20" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="46" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E20" s="50"/>
     </row>
     <row r="21" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="46" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E21" s="50"/>
     </row>
     <row r="22" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="46" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E22" s="50"/>
     </row>
     <row r="23" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="46" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E23" s="50"/>
     </row>
     <row r="24" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="46" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="46" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E25" s="50"/>
     </row>
     <row r="26" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E26" s="50"/>
     </row>
     <row r="27" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E27" s="50"/>
     </row>
     <row r="28" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E28" s="50"/>
     </row>
@@ -5886,10 +5910,10 @@
         <v>287</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E29" s="48" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -5908,155 +5932,155 @@
         <v>292</v>
       </c>
       <c r="B31" t="s">
+        <v>522</v>
+      </c>
+      <c r="C31" t="s">
         <v>523</v>
-      </c>
-      <c r="C31" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -6076,10 +6100,10 @@
         <v>295</v>
       </c>
       <c r="B62" t="s">
-        <v>291</v>
+        <v>756</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D62" t="s">
         <v>503</v>
@@ -6090,10 +6114,10 @@
         <v>296</v>
       </c>
       <c r="B63" t="s">
-        <v>291</v>
+        <v>757</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D63" t="s">
         <v>503</v>
@@ -6104,10 +6128,10 @@
         <v>297</v>
       </c>
       <c r="B64" t="s">
-        <v>291</v>
+        <v>758</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D64" t="s">
         <v>503</v>
@@ -6118,10 +6142,10 @@
         <v>298</v>
       </c>
       <c r="B65" t="s">
-        <v>291</v>
+        <v>759</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D65" t="s">
         <v>503</v>
@@ -6132,10 +6156,10 @@
         <v>299</v>
       </c>
       <c r="B66" t="s">
-        <v>291</v>
+        <v>760</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D66" t="s">
         <v>503</v>
@@ -6146,10 +6170,10 @@
         <v>300</v>
       </c>
       <c r="B67" t="s">
-        <v>291</v>
+        <v>761</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D67" t="s">
         <v>503</v>
@@ -6160,10 +6184,10 @@
         <v>301</v>
       </c>
       <c r="B68" t="s">
-        <v>291</v>
+        <v>762</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D68" t="s">
         <v>503</v>
@@ -6174,10 +6198,10 @@
         <v>302</v>
       </c>
       <c r="B69" t="s">
-        <v>291</v>
+        <v>763</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D69" t="s">
         <v>503</v>
@@ -6185,7 +6209,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="45" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C70" s="41"/>
     </row>
@@ -6200,7 +6224,7 @@
         <v>288</v>
       </c>
       <c r="E71" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -6214,7 +6238,7 @@
         <v>288</v>
       </c>
       <c r="E72" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -6239,10 +6263,10 @@
         <v>288</v>
       </c>
       <c r="D74" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E74" s="48" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -6256,7 +6280,7 @@
         <v>288</v>
       </c>
       <c r="E75" s="48" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -6264,13 +6288,13 @@
         <v>308</v>
       </c>
       <c r="B76" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C76" t="s">
         <v>288</v>
       </c>
       <c r="D76" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -6286,7 +6310,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="45" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -6316,97 +6340,97 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="45" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B81" s="45"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="45" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B82" s="45"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B83" s="45"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B84" s="45"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="45" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B85" s="45"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B86" s="45"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B87" s="45"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B88" s="45"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="45" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B89" s="45"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="45" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B90" s="45"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B91" s="45"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B92" s="45"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="45" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B93" s="45"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="45" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B94" s="45"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="45" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B95" s="45"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="45" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B96" s="45"/>
     </row>
@@ -6421,12 +6445,12 @@
         <v>287</v>
       </c>
       <c r="E97" s="48" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="45" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E98" s="49"/>
     </row>
@@ -6457,10 +6481,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="39" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B101" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C101" t="s">
         <v>287</v>
@@ -6469,15 +6493,15 @@
         <v>70</v>
       </c>
       <c r="E101" s="48" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="39" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B102" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C102" t="s">
         <v>287</v>
@@ -6486,40 +6510,40 @@
         <v>70</v>
       </c>
       <c r="E102" s="48" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="45" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="45" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="45" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="45" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="45" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="45" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B108" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C108" t="s">
         <v>288</v>
@@ -6541,16 +6565,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="45" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B110" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C110" t="s">
         <v>288</v>
       </c>
       <c r="D110" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -6569,7 +6593,7 @@
         <v>324</v>
       </c>
       <c r="B112" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C112" t="s">
         <v>288</v>
@@ -6580,50 +6604,50 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="45" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B113" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C113" t="s">
         <v>288</v>
       </c>
       <c r="D113" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="45" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B114" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C114" t="s">
         <v>288</v>
       </c>
       <c r="D114" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="45" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="45" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="45" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="45" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -6664,7 +6688,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="45" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -6672,7 +6696,7 @@
         <v>330</v>
       </c>
       <c r="B123" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C123" t="s">
         <v>501</v>
@@ -6694,184 +6718,181 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="45" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="45" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="45" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="45" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="45" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>332</v>
       </c>
-      <c r="C130" t="s">
-        <v>526</v>
-      </c>
-      <c r="E130" s="48" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>333</v>
       </c>
-      <c r="C131" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>334</v>
       </c>
-      <c r="C132" t="s">
-        <v>526</v>
-      </c>
-      <c r="E132" s="48" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>335</v>
       </c>
       <c r="C133" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>336</v>
       </c>
       <c r="B139" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C139" t="s">
         <v>501</v>
       </c>
       <c r="D139" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>665</v>
+      </c>
+      <c r="B140" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>669</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -6887,17 +6908,17 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="45" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="45" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="45" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -6928,7 +6949,7 @@
     </row>
     <row r="162" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="45" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E162" s="49"/>
     </row>
@@ -6956,47 +6977,47 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="45" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="45" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="45" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="45" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="45" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="45" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="45" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="45" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="45" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -7015,15 +7036,15 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="45" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="45" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B176" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -7034,7 +7055,7 @@
         <v>269</v>
       </c>
       <c r="C177" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D177" t="s">
         <v>70</v>
@@ -7048,7 +7069,7 @@
         <v>269</v>
       </c>
       <c r="C178" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D178" t="s">
         <v>70</v>
@@ -7056,12 +7077,12 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="181" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -7080,7 +7101,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="45" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B182" s="45"/>
       <c r="C182" s="45"/>
@@ -7089,7 +7110,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="45" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B183" s="45"/>
       <c r="C183" s="45"/>
@@ -7098,7 +7119,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="45" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B184" s="45"/>
       <c r="C184" s="45"/>
@@ -7107,7 +7128,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="45" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B185" s="45"/>
       <c r="C185" s="45"/>
@@ -7116,7 +7137,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="45" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B186" s="45"/>
       <c r="C186" s="45"/>
@@ -7125,7 +7146,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="45" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B187" s="45"/>
       <c r="C187" s="45"/>
@@ -7134,7 +7155,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="45" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B188" s="45"/>
       <c r="C188" s="45"/>
@@ -7143,7 +7164,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="45" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B189" s="45"/>
       <c r="C189" s="45"/>
@@ -7152,7 +7173,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="45" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B190" s="45"/>
       <c r="C190" s="45"/>
@@ -7161,7 +7182,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="45" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B191" s="45"/>
       <c r="C191" s="45"/>
@@ -7170,7 +7191,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="45" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B192" s="45"/>
       <c r="C192" s="45"/>
@@ -7179,7 +7200,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="45" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B193" s="45"/>
       <c r="C193" s="45"/>
@@ -7188,7 +7209,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="45" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B194" s="45"/>
       <c r="C194" s="45"/>
@@ -7197,7 +7218,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="45" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B195" s="45"/>
       <c r="C195" s="45"/>
@@ -7206,7 +7227,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="45" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B196" s="45"/>
       <c r="C196" s="45"/>
@@ -7221,7 +7242,7 @@
         <v>508</v>
       </c>
       <c r="C197" s="37" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D197" s="37" t="s">
         <v>70</v>
@@ -7241,7 +7262,7 @@
         <v>287</v>
       </c>
       <c r="D198" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -7255,27 +7276,27 @@
         <v>287</v>
       </c>
       <c r="D199" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="45" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="45" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -7289,7 +7310,7 @@
         <v>288</v>
       </c>
       <c r="D204" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E204" s="49"/>
     </row>
@@ -7306,22 +7327,22 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="45" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="45" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="45" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -7351,12 +7372,12 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="45" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="45" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -7375,22 +7396,22 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="45" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="45" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="45" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -7404,13 +7425,13 @@
         <v>287</v>
       </c>
       <c r="E219" s="48" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F219" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G219" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -7432,7 +7453,7 @@
         <v>26</v>
       </c>
       <c r="B221" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C221" t="s">
         <v>287</v>
@@ -7443,12 +7464,12 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="45" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="45" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -7464,22 +7485,22 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="45" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="45" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="45" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="45" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -7493,7 +7514,7 @@
         <v>288</v>
       </c>
       <c r="D229" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7501,28 +7522,28 @@
         <v>365</v>
       </c>
       <c r="B230" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C230" t="s">
         <v>288</v>
       </c>
       <c r="D230" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="45" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="45" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="45" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -7538,12 +7559,12 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="45" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="45" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -7551,18 +7572,18 @@
         <v>367</v>
       </c>
       <c r="B237" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C237" t="s">
         <v>287</v>
       </c>
       <c r="D237" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="45" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -7573,7 +7594,7 @@
         <v>80</v>
       </c>
       <c r="E239" s="48" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -7581,7 +7602,7 @@
         <v>369</v>
       </c>
       <c r="B240" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D240" t="s">
         <v>274</v>
@@ -7589,7 +7610,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="45" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -7608,7 +7629,7 @@
         <v>371</v>
       </c>
       <c r="B243" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C243" t="s">
         <v>501</v>
@@ -7616,7 +7637,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="45" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -7627,7 +7648,7 @@
         <v>506</v>
       </c>
       <c r="E245" s="48" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -7649,7 +7670,7 @@
         <v>288</v>
       </c>
       <c r="E247" s="48" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -7657,7 +7678,7 @@
         <v>375</v>
       </c>
       <c r="B248" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D248" t="s">
         <v>502</v>
@@ -7665,17 +7686,17 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="47" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="47" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="47" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -7683,7 +7704,7 @@
         <v>276</v>
       </c>
       <c r="B252" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C252" t="s">
         <v>288</v>
@@ -7691,15 +7712,15 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="45" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="39" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B255" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C255" t="s">
         <v>287</v>
@@ -8091,10 +8112,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B44" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -8102,7 +8123,7 @@
         <v>176</v>
       </c>
       <c r="B45" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -8145,10 +8166,10 @@
         <v>483</v>
       </c>
       <c r="C50" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D50" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -8201,10 +8222,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B57" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C57" t="s">
         <v>493</v>
@@ -8212,10 +8233,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B58" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -8319,28 +8340,28 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="39" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B70" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B73" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>

--- a/Инфраструктура Крона-Банк.xlsx
+++ b/Инфраструктура Крона-Банк.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="767">
   <si>
     <t>Имя</t>
   </si>
@@ -2319,9 +2319,6 @@
     <t>только web spere</t>
   </si>
   <si>
-    <t>Finist</t>
-  </si>
-  <si>
     <t xml:space="preserve">StahanovecDLP
 </t>
   </si>
@@ -2359,14 +2356,20 @@
     <t>kbr</t>
   </si>
   <si>
-    <t>Proxy</t>
+    <t>Finist_transition (178)</t>
+  </si>
+  <si>
+    <t>Finist (Бой)</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Server 2022 (64-bit)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2571,6 +2574,13 @@
     <font>
       <sz val="9"/>
       <color rgb="FF1F2C33"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF565656"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -2986,7 +2996,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3069,6 +3079,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5695,8 +5706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5765,10 +5776,10 @@
         <v>287</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -5824,13 +5835,13 @@
         <v>581</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C17" s="46" t="s">
         <v>288</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -6100,7 +6111,7 @@
         <v>295</v>
       </c>
       <c r="B62" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C62" s="41" t="s">
         <v>517</v>
@@ -6114,7 +6125,7 @@
         <v>296</v>
       </c>
       <c r="B63" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C63" s="41" t="s">
         <v>517</v>
@@ -6128,7 +6139,7 @@
         <v>297</v>
       </c>
       <c r="B64" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C64" s="41" t="s">
         <v>517</v>
@@ -6142,7 +6153,7 @@
         <v>298</v>
       </c>
       <c r="B65" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C65" s="41" t="s">
         <v>517</v>
@@ -6156,7 +6167,7 @@
         <v>299</v>
       </c>
       <c r="B66" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C66" s="41" t="s">
         <v>517</v>
@@ -6170,7 +6181,7 @@
         <v>300</v>
       </c>
       <c r="B67" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C67" s="41" t="s">
         <v>517</v>
@@ -6184,7 +6195,7 @@
         <v>301</v>
       </c>
       <c r="B68" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C68" s="41" t="s">
         <v>517</v>
@@ -6198,7 +6209,7 @@
         <v>302</v>
       </c>
       <c r="B69" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C69" s="41" t="s">
         <v>517</v>
@@ -6746,7 +6757,7 @@
         <v>332</v>
       </c>
       <c r="B130" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -6754,7 +6765,7 @@
         <v>333</v>
       </c>
       <c r="B131" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -6762,7 +6773,7 @@
         <v>334</v>
       </c>
       <c r="B132" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -6816,9 +6827,6 @@
       <c r="A140" t="s">
         <v>665</v>
       </c>
-      <c r="B140" t="s">
-        <v>765</v>
-      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
@@ -6999,6 +7007,15 @@
       <c r="A169" s="45" t="s">
         <v>688</v>
       </c>
+      <c r="B169" t="s">
+        <v>764</v>
+      </c>
+      <c r="C169" t="s">
+        <v>288</v>
+      </c>
+      <c r="E169" s="55" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="45" t="s">
@@ -7044,7 +7061,13 @@
         <v>694</v>
       </c>
       <c r="B176" t="s">
-        <v>752</v>
+        <v>765</v>
+      </c>
+      <c r="C176" t="s">
+        <v>287</v>
+      </c>
+      <c r="E176" s="55" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">

--- a/Инфраструктура Крона-Банк.xlsx
+++ b/Инфраструктура Крона-Банк.xlsx
@@ -1641,12 +1641,6 @@
     <t>???</t>
   </si>
   <si>
-    <t>Giga-byte Technology</t>
-  </si>
-  <si>
-    <t>ms-sql-s</t>
-  </si>
-  <si>
     <t>MS-serv</t>
   </si>
   <si>
@@ -2363,6 +2357,12 @@
   </si>
   <si>
     <t>Microsoft Windows Server 2022 (64-bit)</t>
+  </si>
+  <si>
+    <t>Sberfinline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">локальный админ </t>
   </si>
 </sst>
 </file>
@@ -4488,7 +4488,7 @@
         <v>255</v>
       </c>
       <c r="G2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>256</v>
@@ -5706,8 +5706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5722,64 +5722,64 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>287</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -5793,7 +5793,7 @@
         <v>287</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E12" s="50"/>
     </row>
@@ -5808,105 +5808,105 @@
         <v>288</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E13" s="50"/>
     </row>
     <row r="14" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E14" s="50"/>
     </row>
     <row r="15" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E15" s="50"/>
     </row>
     <row r="16" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E16" s="50"/>
     </row>
     <row r="17" spans="1:5" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C17" s="46" t="s">
         <v>288</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E18" s="50"/>
     </row>
     <row r="19" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="46" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E19" s="50"/>
     </row>
     <row r="20" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="46" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E20" s="50"/>
     </row>
     <row r="21" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="46" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E21" s="50"/>
     </row>
     <row r="22" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="46" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E22" s="50"/>
     </row>
     <row r="23" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="46" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E23" s="50"/>
     </row>
     <row r="24" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="46" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="46" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E25" s="50"/>
     </row>
     <row r="26" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E26" s="50"/>
     </row>
     <row r="27" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E27" s="50"/>
     </row>
     <row r="28" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E28" s="50"/>
     </row>
@@ -5924,7 +5924,7 @@
         <v>520</v>
       </c>
       <c r="E29" s="48" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -5951,147 +5951,147 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -6111,7 +6111,7 @@
         <v>295</v>
       </c>
       <c r="B62" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C62" s="41" t="s">
         <v>517</v>
@@ -6125,7 +6125,7 @@
         <v>296</v>
       </c>
       <c r="B63" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C63" s="41" t="s">
         <v>517</v>
@@ -6139,7 +6139,7 @@
         <v>297</v>
       </c>
       <c r="B64" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C64" s="41" t="s">
         <v>517</v>
@@ -6153,7 +6153,7 @@
         <v>298</v>
       </c>
       <c r="B65" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C65" s="41" t="s">
         <v>517</v>
@@ -6167,7 +6167,7 @@
         <v>299</v>
       </c>
       <c r="B66" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C66" s="41" t="s">
         <v>517</v>
@@ -6181,7 +6181,7 @@
         <v>300</v>
       </c>
       <c r="B67" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C67" s="41" t="s">
         <v>517</v>
@@ -6195,7 +6195,7 @@
         <v>301</v>
       </c>
       <c r="B68" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C68" s="41" t="s">
         <v>517</v>
@@ -6209,7 +6209,7 @@
         <v>302</v>
       </c>
       <c r="B69" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C69" s="41" t="s">
         <v>517</v>
@@ -6220,7 +6220,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="45" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C70" s="41"/>
     </row>
@@ -6235,7 +6235,7 @@
         <v>288</v>
       </c>
       <c r="E71" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -6249,7 +6249,7 @@
         <v>288</v>
       </c>
       <c r="E72" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -6277,7 +6277,7 @@
         <v>516</v>
       </c>
       <c r="E74" s="48" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -6291,7 +6291,7 @@
         <v>288</v>
       </c>
       <c r="E75" s="48" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -6299,13 +6299,13 @@
         <v>308</v>
       </c>
       <c r="B76" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C76" t="s">
         <v>288</v>
       </c>
       <c r="D76" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -6321,7 +6321,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="45" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -6351,97 +6351,97 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="45" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B81" s="45"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="45" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B82" s="45"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B83" s="45"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B84" s="45"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="45" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B85" s="45"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B86" s="45"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B87" s="45"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B88" s="45"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="45" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B89" s="45"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="45" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B90" s="45"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B91" s="45"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B92" s="45"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="45" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B93" s="45"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="45" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B94" s="45"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="45" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B95" s="45"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="45" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B96" s="45"/>
     </row>
@@ -6456,12 +6456,12 @@
         <v>287</v>
       </c>
       <c r="E97" s="48" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="45" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E98" s="49"/>
     </row>
@@ -6492,10 +6492,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="39" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B101" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C101" t="s">
         <v>287</v>
@@ -6504,15 +6504,15 @@
         <v>70</v>
       </c>
       <c r="E101" s="48" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="39" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B102" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C102" t="s">
         <v>287</v>
@@ -6521,40 +6521,40 @@
         <v>70</v>
       </c>
       <c r="E102" s="48" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="45" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="45" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="45" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="45" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="45" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="45" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B108" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C108" t="s">
         <v>288</v>
@@ -6576,16 +6576,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="45" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B110" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C110" t="s">
         <v>288</v>
       </c>
       <c r="D110" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -6604,7 +6604,7 @@
         <v>324</v>
       </c>
       <c r="B112" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C112" t="s">
         <v>288</v>
@@ -6615,50 +6615,50 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="45" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B113" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C113" t="s">
         <v>288</v>
       </c>
       <c r="D113" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="45" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B114" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C114" t="s">
         <v>288</v>
       </c>
       <c r="D114" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="45" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="45" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="45" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="45" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -6699,7 +6699,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="45" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -6729,27 +6729,27 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="45" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="45" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="45" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="45" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="45" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -6757,7 +6757,7 @@
         <v>332</v>
       </c>
       <c r="B130" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -6765,7 +6765,7 @@
         <v>333</v>
       </c>
       <c r="B131" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -6773,7 +6773,7 @@
         <v>334</v>
       </c>
       <c r="B132" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -6786,27 +6786,27 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -6814,93 +6814,93 @@
         <v>336</v>
       </c>
       <c r="B139" t="s">
-        <v>526</v>
-      </c>
-      <c r="C139" t="s">
-        <v>501</v>
+        <v>765</v>
+      </c>
+      <c r="C139" s="52" t="s">
+        <v>287</v>
       </c>
       <c r="D139" t="s">
-        <v>527</v>
+        <v>766</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -6916,17 +6916,17 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="45" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="45" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="45" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -6957,7 +6957,7 @@
     </row>
     <row r="162" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="45" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E162" s="49"/>
     </row>
@@ -6985,56 +6985,56 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="45" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="45" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="45" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="45" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="45" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B169" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C169" t="s">
         <v>288</v>
       </c>
       <c r="E169" s="55" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="45" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="45" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="45" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="45" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -7053,21 +7053,21 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="45" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="45" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B176" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C176" t="s">
         <v>287</v>
       </c>
       <c r="E176" s="55" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -7078,7 +7078,7 @@
         <v>269</v>
       </c>
       <c r="C177" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D177" t="s">
         <v>70</v>
@@ -7092,7 +7092,7 @@
         <v>269</v>
       </c>
       <c r="C178" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D178" t="s">
         <v>70</v>
@@ -7100,12 +7100,12 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="181" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -7124,7 +7124,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="45" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B182" s="45"/>
       <c r="C182" s="45"/>
@@ -7133,7 +7133,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="45" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B183" s="45"/>
       <c r="C183" s="45"/>
@@ -7142,7 +7142,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="45" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B184" s="45"/>
       <c r="C184" s="45"/>
@@ -7151,7 +7151,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="45" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B185" s="45"/>
       <c r="C185" s="45"/>
@@ -7160,7 +7160,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="45" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B186" s="45"/>
       <c r="C186" s="45"/>
@@ -7169,7 +7169,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="45" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B187" s="45"/>
       <c r="C187" s="45"/>
@@ -7178,7 +7178,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="45" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B188" s="45"/>
       <c r="C188" s="45"/>
@@ -7187,7 +7187,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="45" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B189" s="45"/>
       <c r="C189" s="45"/>
@@ -7196,7 +7196,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="45" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B190" s="45"/>
       <c r="C190" s="45"/>
@@ -7205,7 +7205,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="45" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B191" s="45"/>
       <c r="C191" s="45"/>
@@ -7214,7 +7214,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="45" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B192" s="45"/>
       <c r="C192" s="45"/>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="45" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B193" s="45"/>
       <c r="C193" s="45"/>
@@ -7232,7 +7232,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="45" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B194" s="45"/>
       <c r="C194" s="45"/>
@@ -7241,7 +7241,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="45" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B195" s="45"/>
       <c r="C195" s="45"/>
@@ -7250,7 +7250,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="45" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B196" s="45"/>
       <c r="C196" s="45"/>
@@ -7265,7 +7265,7 @@
         <v>508</v>
       </c>
       <c r="C197" s="37" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D197" s="37" t="s">
         <v>70</v>
@@ -7304,22 +7304,22 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="45" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="45" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="45" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -7350,22 +7350,22 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="45" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="45" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="45" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -7395,12 +7395,12 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="45" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="45" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -7419,22 +7419,22 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="45" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="45" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="45" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="45" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -7451,10 +7451,10 @@
         <v>518</v>
       </c>
       <c r="F219" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G219" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -7476,7 +7476,7 @@
         <v>26</v>
       </c>
       <c r="B221" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C221" t="s">
         <v>287</v>
@@ -7487,12 +7487,12 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="45" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="45" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -7508,22 +7508,22 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="45" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="45" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="45" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="45" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -7545,28 +7545,28 @@
         <v>365</v>
       </c>
       <c r="B230" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C230" t="s">
         <v>288</v>
       </c>
       <c r="D230" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="45" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="45" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="45" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -7582,12 +7582,12 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="45" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="45" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -7595,18 +7595,18 @@
         <v>367</v>
       </c>
       <c r="B237" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C237" t="s">
         <v>287</v>
       </c>
       <c r="D237" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="45" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -7617,7 +7617,7 @@
         <v>80</v>
       </c>
       <c r="E239" s="48" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -7625,7 +7625,7 @@
         <v>369</v>
       </c>
       <c r="B240" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D240" t="s">
         <v>274</v>
@@ -7633,7 +7633,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="45" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -7652,7 +7652,7 @@
         <v>371</v>
       </c>
       <c r="B243" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C243" t="s">
         <v>501</v>
@@ -7660,7 +7660,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="45" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -7671,7 +7671,7 @@
         <v>506</v>
       </c>
       <c r="E245" s="48" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -7693,7 +7693,7 @@
         <v>288</v>
       </c>
       <c r="E247" s="48" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -7709,17 +7709,17 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="47" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="47" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="47" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -7727,7 +7727,7 @@
         <v>276</v>
       </c>
       <c r="B252" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C252" t="s">
         <v>288</v>
@@ -7735,15 +7735,15 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="45" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="39" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B255" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C255" t="s">
         <v>287</v>
@@ -8135,10 +8135,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B44" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -8146,7 +8146,7 @@
         <v>176</v>
       </c>
       <c r="B45" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -8189,10 +8189,10 @@
         <v>483</v>
       </c>
       <c r="C50" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D50" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -8245,10 +8245,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B57" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C57" t="s">
         <v>493</v>
@@ -8256,10 +8256,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B58" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -8363,28 +8363,28 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="39" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B70" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B73" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>

--- a/Инфраструктура Крона-Банк.xlsx
+++ b/Инфраструктура Крона-Банк.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="771">
   <si>
     <t>Имя</t>
   </si>
@@ -2363,6 +2363,18 @@
   </si>
   <si>
     <t xml:space="preserve">локальный админ </t>
+  </si>
+  <si>
+    <t>MikroTik_10G_2</t>
+  </si>
+  <si>
+    <t>MikroTik_10G_1</t>
+  </si>
+  <si>
+    <t>bridge</t>
+  </si>
+  <si>
+    <t>admin/Крона1993</t>
   </si>
 </sst>
 </file>
@@ -5706,8 +5718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6872,10 +6884,28 @@
       <c r="A149" t="s">
         <v>672</v>
       </c>
+      <c r="B149" t="s">
+        <v>768</v>
+      </c>
+      <c r="C149" t="s">
+        <v>769</v>
+      </c>
+      <c r="D149" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>565</v>
+      </c>
+      <c r="B150" t="s">
+        <v>767</v>
+      </c>
+      <c r="C150" t="s">
+        <v>769</v>
+      </c>
+      <c r="D150" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">

--- a/Инфраструктура Крона-Банк.xlsx
+++ b/Инфраструктура Крона-Банк.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="772">
   <si>
     <t>Имя</t>
   </si>
@@ -2375,6 +2375,9 @@
   </si>
   <si>
     <t>admin/Крона1993</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -5718,8 +5721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="D152" sqref="D152"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6671,6 +6674,9 @@
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="45" t="s">
         <v>652</v>
+      </c>
+      <c r="B118" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">

--- a/Инфраструктура Крона-Банк.xlsx
+++ b/Инфраструктура Крона-Банк.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="773">
   <si>
     <t>Имя</t>
   </si>
@@ -2378,6 +2378,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>GestBank_remoteapp</t>
   </si>
 </sst>
 </file>
@@ -5721,8 +5724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7056,6 +7059,12 @@
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="45" t="s">
         <v>687</v>
+      </c>
+      <c r="B170" t="s">
+        <v>772</v>
+      </c>
+      <c r="C170" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">

--- a/Инфраструктура Крона-Банк.xlsx
+++ b/Инфраструктура Крона-Банк.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="774">
   <si>
     <t>Имя</t>
   </si>
@@ -2350,12 +2350,6 @@
     <t>kbr</t>
   </si>
   <si>
-    <t>Finist_transition (178)</t>
-  </si>
-  <si>
-    <t>Finist (Бой)</t>
-  </si>
-  <si>
     <t>Microsoft Windows Server 2022 (64-bit)</t>
   </si>
   <si>
@@ -2380,7 +2374,16 @@
     <t>test</t>
   </si>
   <si>
-    <t>GestBank_remoteapp</t>
+    <t>Finist_BD</t>
+  </si>
+  <si>
+    <t>Finist_transition (170)</t>
+  </si>
+  <si>
+    <t>Finist_App_serv (172)</t>
+  </si>
+  <si>
+    <t>GestBank_remoteapp (171)</t>
   </si>
 </sst>
 </file>
@@ -5725,7 +5728,7 @@
   <dimension ref="A2:G256"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6679,7 +6682,7 @@
         <v>652</v>
       </c>
       <c r="B118" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -6835,13 +6838,13 @@
         <v>336</v>
       </c>
       <c r="B139" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C139" s="52" t="s">
         <v>287</v>
       </c>
       <c r="D139" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -6894,13 +6897,13 @@
         <v>672</v>
       </c>
       <c r="B149" t="s">
+        <v>766</v>
+      </c>
+      <c r="C149" t="s">
+        <v>767</v>
+      </c>
+      <c r="D149" t="s">
         <v>768</v>
-      </c>
-      <c r="C149" t="s">
-        <v>769</v>
-      </c>
-      <c r="D149" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -6908,13 +6911,13 @@
         <v>565</v>
       </c>
       <c r="B150" t="s">
+        <v>765</v>
+      </c>
+      <c r="C150" t="s">
         <v>767</v>
       </c>
-      <c r="C150" t="s">
-        <v>769</v>
-      </c>
       <c r="D150" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -7047,13 +7050,13 @@
         <v>686</v>
       </c>
       <c r="B169" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="C169" t="s">
         <v>288</v>
       </c>
       <c r="E169" s="55" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -7061,7 +7064,7 @@
         <v>687</v>
       </c>
       <c r="B170" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C170" t="s">
         <v>288</v>
@@ -7071,6 +7074,12 @@
       <c r="A171" s="45" t="s">
         <v>688</v>
       </c>
+      <c r="B171" t="s">
+        <v>772</v>
+      </c>
+      <c r="C171" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="45" t="s">
@@ -7106,13 +7115,13 @@
         <v>692</v>
       </c>
       <c r="B176" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="C176" t="s">
         <v>287</v>
       </c>
       <c r="E176" s="55" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">

--- a/Инфраструктура Крона-Банк.xlsx
+++ b/Инфраструктура Крона-Банк.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="773">
   <si>
     <t>Имя</t>
   </si>
@@ -2378,9 +2378,6 @@
   </si>
   <si>
     <t>Finist_transition (170)</t>
-  </si>
-  <si>
-    <t>Finist_App_serv (172)</t>
   </si>
   <si>
     <t>GestBank_remoteapp (171)</t>
@@ -5728,7 +5725,7 @@
   <dimension ref="A2:G256"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176"/>
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7064,21 +7061,18 @@
         <v>687</v>
       </c>
       <c r="B170" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C170" t="s">
         <v>288</v>
+      </c>
+      <c r="E170" s="55" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="45" t="s">
         <v>688</v>
-      </c>
-      <c r="B171" t="s">
-        <v>772</v>
-      </c>
-      <c r="C171" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">

--- a/Инфраструктура Крона-Банк.xlsx
+++ b/Инфраструктура Крона-Банк.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="1725" windowWidth="21600" windowHeight="13560" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="5940" yWindow="1725" windowWidth="21600" windowHeight="13560" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="135" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="780">
   <si>
     <t>Имя</t>
   </si>
@@ -1398,12 +1398,6 @@
     <t>ЮрО (Юридический)</t>
   </si>
   <si>
-    <t xml:space="preserve">Canon 2202N </t>
-  </si>
-  <si>
-    <t>ОУиКАУР (Бухгалтерия)</t>
-  </si>
-  <si>
     <t>HEAD-02.TCBDomen.trustcombank.ru</t>
   </si>
   <si>
@@ -1590,9 +1584,6 @@
     <t>NAVISPHERE</t>
   </si>
   <si>
-    <t>Brother</t>
-  </si>
-  <si>
     <t>В 135 сеть</t>
   </si>
   <si>
@@ -1759,9 +1750,6 @@
   </si>
   <si>
     <t>10.129.135.151</t>
-  </si>
-  <si>
-    <t>Mikrotik_10G_2</t>
   </si>
   <si>
     <t>10.129.135.1</t>
@@ -2381,6 +2369,39 @@
   </si>
   <si>
     <t>GestBank_remoteapp (171)</t>
+  </si>
+  <si>
+    <t>10.129.130.120</t>
+  </si>
+  <si>
+    <t>MFC-L2805DW (Бухгалтерия)</t>
+  </si>
+  <si>
+    <t>10.129.130.121</t>
+  </si>
+  <si>
+    <t>HP LaserJet Professional P1606dn (ИБ)</t>
+  </si>
+  <si>
+    <t>10.129.130.122</t>
+  </si>
+  <si>
+    <t>10.129.130.123</t>
+  </si>
+  <si>
+    <t>10.129.130.124</t>
+  </si>
+  <si>
+    <t>10.129.130.125</t>
+  </si>
+  <si>
+    <t>10.129.130.126</t>
+  </si>
+  <si>
+    <t>10.129.130.128</t>
+  </si>
+  <si>
+    <t>10.129.130.129</t>
   </si>
 </sst>
 </file>
@@ -4130,7 +4151,7 @@
         <v>122</v>
       </c>
       <c r="H3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4506,7 +4527,7 @@
         <v>255</v>
       </c>
       <c r="G2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>256</v>
@@ -5724,7 +5745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+    <sheetView topLeftCell="A154" workbookViewId="0">
       <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
@@ -5740,64 +5761,64 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>287</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -5811,7 +5832,7 @@
         <v>287</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E12" s="50"/>
     </row>
@@ -5826,105 +5847,105 @@
         <v>288</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E13" s="50"/>
     </row>
     <row r="14" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E14" s="50"/>
     </row>
     <row r="15" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E15" s="50"/>
     </row>
     <row r="16" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E16" s="50"/>
     </row>
     <row r="17" spans="1:5" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C17" s="46" t="s">
         <v>288</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E18" s="50"/>
     </row>
     <row r="19" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="46" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E19" s="50"/>
     </row>
     <row r="20" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="46" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E20" s="50"/>
     </row>
     <row r="21" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="46" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E21" s="50"/>
     </row>
     <row r="22" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="46" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E22" s="50"/>
     </row>
     <row r="23" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="46" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E23" s="50"/>
     </row>
     <row r="24" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="46" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="46" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E25" s="50"/>
     </row>
     <row r="26" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E26" s="50"/>
     </row>
     <row r="27" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E27" s="50"/>
     </row>
     <row r="28" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E28" s="50"/>
     </row>
@@ -5939,10 +5960,10 @@
         <v>287</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E29" s="48" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -5953,7 +5974,7 @@
         <v>291</v>
       </c>
       <c r="D30" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -5961,155 +5982,155 @@
         <v>292</v>
       </c>
       <c r="B31" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C31" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -6129,13 +6150,13 @@
         <v>295</v>
       </c>
       <c r="B62" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D62" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -6143,13 +6164,13 @@
         <v>296</v>
       </c>
       <c r="B63" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D63" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -6157,13 +6178,13 @@
         <v>297</v>
       </c>
       <c r="B64" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D64" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -6171,13 +6192,13 @@
         <v>298</v>
       </c>
       <c r="B65" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D65" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -6185,13 +6206,13 @@
         <v>299</v>
       </c>
       <c r="B66" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D66" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -6199,13 +6220,13 @@
         <v>300</v>
       </c>
       <c r="B67" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D67" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -6213,13 +6234,13 @@
         <v>301</v>
       </c>
       <c r="B68" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D68" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -6227,18 +6248,18 @@
         <v>302</v>
       </c>
       <c r="B69" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D69" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="45" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C70" s="41"/>
     </row>
@@ -6253,7 +6274,7 @@
         <v>288</v>
       </c>
       <c r="E71" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -6267,7 +6288,7 @@
         <v>288</v>
       </c>
       <c r="E72" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -6292,10 +6313,10 @@
         <v>288</v>
       </c>
       <c r="D74" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E74" s="48" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -6309,7 +6330,7 @@
         <v>288</v>
       </c>
       <c r="E75" s="48" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -6317,13 +6338,13 @@
         <v>308</v>
       </c>
       <c r="B76" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C76" t="s">
         <v>288</v>
       </c>
       <c r="D76" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -6339,7 +6360,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="45" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -6369,97 +6390,97 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="45" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B81" s="45"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="45" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B82" s="45"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B83" s="45"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B84" s="45"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="45" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B85" s="45"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B86" s="45"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B87" s="45"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B88" s="45"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="45" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B89" s="45"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="45" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B90" s="45"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B91" s="45"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B92" s="45"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="45" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B93" s="45"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="45" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B94" s="45"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="45" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B95" s="45"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="45" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B96" s="45"/>
     </row>
@@ -6474,12 +6495,12 @@
         <v>287</v>
       </c>
       <c r="E97" s="48" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="45" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E98" s="49"/>
     </row>
@@ -6488,7 +6509,7 @@
         <v>313</v>
       </c>
       <c r="E99" s="48" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -6505,15 +6526,15 @@
         <v>70</v>
       </c>
       <c r="E100" s="48" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="39" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B101" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C101" t="s">
         <v>287</v>
@@ -6522,15 +6543,15 @@
         <v>70</v>
       </c>
       <c r="E101" s="48" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="39" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B102" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C102" t="s">
         <v>287</v>
@@ -6539,40 +6560,40 @@
         <v>70</v>
       </c>
       <c r="E102" s="48" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="45" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="45" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="45" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="45" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="45" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="45" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B108" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C108" t="s">
         <v>288</v>
@@ -6594,16 +6615,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="45" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B110" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C110" t="s">
         <v>288</v>
       </c>
       <c r="D110" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -6622,7 +6643,7 @@
         <v>324</v>
       </c>
       <c r="B112" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C112" t="s">
         <v>288</v>
@@ -6633,53 +6654,53 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="45" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B113" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C113" t="s">
         <v>288</v>
       </c>
       <c r="D113" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="45" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B114" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C114" t="s">
         <v>288</v>
       </c>
       <c r="D114" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="45" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="45" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="45" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="45" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B118" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -6720,7 +6741,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="45" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -6728,10 +6749,10 @@
         <v>330</v>
       </c>
       <c r="B123" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C123" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D123" t="s">
         <v>274</v>
@@ -6750,27 +6771,27 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="45" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="45" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="45" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="45" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="45" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -6778,7 +6799,7 @@
         <v>332</v>
       </c>
       <c r="B130" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -6786,7 +6807,7 @@
         <v>333</v>
       </c>
       <c r="B131" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -6794,7 +6815,7 @@
         <v>334</v>
       </c>
       <c r="B132" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -6802,32 +6823,32 @@
         <v>335</v>
       </c>
       <c r="C133" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -6835,111 +6856,111 @@
         <v>336</v>
       </c>
       <c r="B139" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C139" s="52" t="s">
         <v>287</v>
       </c>
       <c r="D139" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B149" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C149" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D149" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B150" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C150" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D150" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -6955,17 +6976,17 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="45" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="45" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="45" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -6996,7 +7017,7 @@
     </row>
     <row r="162" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="45" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E162" s="49"/>
     </row>
@@ -7024,65 +7045,65 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="45" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="45" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="45" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="45" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="45" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B169" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C169" t="s">
         <v>288</v>
       </c>
       <c r="E169" s="55" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="45" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B170" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C170" t="s">
         <v>288</v>
       </c>
       <c r="E170" s="55" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="45" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="45" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="45" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -7101,21 +7122,21 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="45" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="45" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B176" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C176" t="s">
         <v>287</v>
       </c>
       <c r="E176" s="55" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -7126,7 +7147,7 @@
         <v>269</v>
       </c>
       <c r="C177" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D177" t="s">
         <v>70</v>
@@ -7140,7 +7161,7 @@
         <v>269</v>
       </c>
       <c r="C178" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D178" t="s">
         <v>70</v>
@@ -7148,12 +7169,12 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="181" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -7172,7 +7193,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="45" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B182" s="45"/>
       <c r="C182" s="45"/>
@@ -7181,7 +7202,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="45" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B183" s="45"/>
       <c r="C183" s="45"/>
@@ -7190,7 +7211,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="45" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B184" s="45"/>
       <c r="C184" s="45"/>
@@ -7199,7 +7220,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="45" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B185" s="45"/>
       <c r="C185" s="45"/>
@@ -7208,7 +7229,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="45" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B186" s="45"/>
       <c r="C186" s="45"/>
@@ -7217,7 +7238,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="45" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B187" s="45"/>
       <c r="C187" s="45"/>
@@ -7226,7 +7247,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="45" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B188" s="45"/>
       <c r="C188" s="45"/>
@@ -7235,7 +7256,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="45" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B189" s="45"/>
       <c r="C189" s="45"/>
@@ -7244,7 +7265,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="45" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B190" s="45"/>
       <c r="C190" s="45"/>
@@ -7253,7 +7274,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="45" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B191" s="45"/>
       <c r="C191" s="45"/>
@@ -7262,7 +7283,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="45" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B192" s="45"/>
       <c r="C192" s="45"/>
@@ -7271,7 +7292,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="45" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B193" s="45"/>
       <c r="C193" s="45"/>
@@ -7280,7 +7301,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="45" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B194" s="45"/>
       <c r="C194" s="45"/>
@@ -7289,7 +7310,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="45" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B195" s="45"/>
       <c r="C195" s="45"/>
@@ -7298,7 +7319,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="45" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B196" s="45"/>
       <c r="C196" s="45"/>
@@ -7310,16 +7331,16 @@
         <v>351</v>
       </c>
       <c r="B197" s="37" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C197" s="37" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D197" s="37" t="s">
         <v>70</v>
       </c>
       <c r="E197" s="51" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -7333,7 +7354,7 @@
         <v>287</v>
       </c>
       <c r="D198" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -7347,27 +7368,27 @@
         <v>287</v>
       </c>
       <c r="D199" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="45" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="45" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="45" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="45" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -7381,7 +7402,7 @@
         <v>288</v>
       </c>
       <c r="D204" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E204" s="49"/>
     </row>
@@ -7398,22 +7419,22 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="45" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="45" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="45" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -7443,12 +7464,12 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="45" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="45" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -7462,27 +7483,27 @@
         <v>288</v>
       </c>
       <c r="D214" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="45" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="45" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="45" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="45" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -7496,13 +7517,13 @@
         <v>287</v>
       </c>
       <c r="E219" s="48" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F219" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G219" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -7524,7 +7545,7 @@
         <v>26</v>
       </c>
       <c r="B221" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C221" t="s">
         <v>287</v>
@@ -7535,12 +7556,12 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="45" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="45" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -7556,22 +7577,22 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="45" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="45" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="45" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="45" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -7585,7 +7606,7 @@
         <v>288</v>
       </c>
       <c r="D229" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7593,28 +7614,28 @@
         <v>365</v>
       </c>
       <c r="B230" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C230" t="s">
         <v>288</v>
       </c>
       <c r="D230" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="45" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="45" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="45" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -7630,12 +7651,12 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="45" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="45" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -7643,18 +7664,18 @@
         <v>367</v>
       </c>
       <c r="B237" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C237" t="s">
         <v>287</v>
       </c>
       <c r="D237" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="45" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -7665,7 +7686,7 @@
         <v>80</v>
       </c>
       <c r="E239" s="48" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -7673,7 +7694,7 @@
         <v>369</v>
       </c>
       <c r="B240" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D240" t="s">
         <v>274</v>
@@ -7681,7 +7702,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="45" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -7700,15 +7721,15 @@
         <v>371</v>
       </c>
       <c r="B243" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C243" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="45" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -7716,10 +7737,10 @@
         <v>372</v>
       </c>
       <c r="B245" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E245" s="48" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -7727,7 +7748,7 @@
         <v>373</v>
       </c>
       <c r="B246" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -7741,7 +7762,7 @@
         <v>288</v>
       </c>
       <c r="E247" s="48" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -7749,25 +7770,25 @@
         <v>375</v>
       </c>
       <c r="B248" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D248" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="47" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="47" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="47" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -7775,7 +7796,7 @@
         <v>276</v>
       </c>
       <c r="B252" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C252" t="s">
         <v>288</v>
@@ -7783,15 +7804,15 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="45" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="39" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B255" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C255" t="s">
         <v>287</v>
@@ -7810,10 +7831,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D73"/>
+  <dimension ref="A2:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7839,9 +7860,6 @@
       <c r="A3" t="s">
         <v>213</v>
       </c>
-      <c r="B3" t="s">
-        <v>509</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -7863,12 +7881,7 @@
       <c r="A6" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>445</v>
-      </c>
-      <c r="D6" t="s">
-        <v>446</v>
-      </c>
+      <c r="B6" s="40"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -7918,7 +7931,7 @@
         <v>390</v>
       </c>
       <c r="B12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -7926,7 +7939,7 @@
         <v>391</v>
       </c>
       <c r="B13" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -7934,7 +7947,7 @@
         <v>392</v>
       </c>
       <c r="B14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -7942,7 +7955,7 @@
         <v>393</v>
       </c>
       <c r="B15" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -7950,7 +7963,7 @@
         <v>394</v>
       </c>
       <c r="B16" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -7958,7 +7971,7 @@
         <v>395</v>
       </c>
       <c r="B17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -7966,10 +7979,10 @@
         <v>147</v>
       </c>
       <c r="B18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D18" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -7977,7 +7990,7 @@
         <v>157</v>
       </c>
       <c r="B19" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7985,7 +7998,7 @@
         <v>167</v>
       </c>
       <c r="B20" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -7996,7 +8009,7 @@
         <v>440</v>
       </c>
       <c r="D21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8004,7 +8017,7 @@
         <v>396</v>
       </c>
       <c r="B22" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -8023,7 +8036,7 @@
         <v>397</v>
       </c>
       <c r="B24" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -8031,7 +8044,7 @@
         <v>398</v>
       </c>
       <c r="B25" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -8039,7 +8052,7 @@
         <v>399</v>
       </c>
       <c r="B26" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -8047,7 +8060,7 @@
         <v>164</v>
       </c>
       <c r="B27" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -8055,7 +8068,7 @@
         <v>400</v>
       </c>
       <c r="B28" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -8063,7 +8076,7 @@
         <v>401</v>
       </c>
       <c r="B29" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -8071,7 +8084,7 @@
         <v>402</v>
       </c>
       <c r="B30" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -8079,7 +8092,7 @@
         <v>403</v>
       </c>
       <c r="B31" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -8087,7 +8100,7 @@
         <v>404</v>
       </c>
       <c r="B32" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -8095,7 +8108,7 @@
         <v>405</v>
       </c>
       <c r="B33" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -8103,10 +8116,10 @@
         <v>406</v>
       </c>
       <c r="C34" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D34" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -8114,7 +8127,7 @@
         <v>407</v>
       </c>
       <c r="B35" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -8122,7 +8135,7 @@
         <v>408</v>
       </c>
       <c r="B36" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -8130,7 +8143,7 @@
         <v>409</v>
       </c>
       <c r="B37" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -8138,7 +8151,7 @@
         <v>410</v>
       </c>
       <c r="B38" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -8146,7 +8159,7 @@
         <v>411</v>
       </c>
       <c r="B39" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -8154,7 +8167,7 @@
         <v>412</v>
       </c>
       <c r="B40" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -8162,7 +8175,7 @@
         <v>413</v>
       </c>
       <c r="B41" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -8170,7 +8183,7 @@
         <v>414</v>
       </c>
       <c r="B42" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -8178,15 +8191,15 @@
         <v>415</v>
       </c>
       <c r="B43" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B44" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -8194,7 +8207,7 @@
         <v>176</v>
       </c>
       <c r="B45" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -8202,7 +8215,7 @@
         <v>416</v>
       </c>
       <c r="B46" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -8210,7 +8223,7 @@
         <v>417</v>
       </c>
       <c r="B47" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -8218,7 +8231,7 @@
         <v>418</v>
       </c>
       <c r="B48" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -8226,7 +8239,7 @@
         <v>419</v>
       </c>
       <c r="B49" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -8234,13 +8247,13 @@
         <v>420</v>
       </c>
       <c r="B50" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C50" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D50" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -8248,7 +8261,7 @@
         <v>421</v>
       </c>
       <c r="B51" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -8256,7 +8269,7 @@
         <v>422</v>
       </c>
       <c r="B52" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -8264,7 +8277,7 @@
         <v>423</v>
       </c>
       <c r="B53" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -8272,167 +8285,210 @@
         <v>424</v>
       </c>
       <c r="B54" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>425</v>
-      </c>
-      <c r="B55" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>184</v>
-      </c>
-      <c r="B56" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>548</v>
+        <v>425</v>
       </c>
       <c r="B57" t="s">
-        <v>549</v>
-      </c>
-      <c r="C57" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>565</v>
+        <v>769</v>
       </c>
       <c r="B58" t="s">
-        <v>566</v>
+        <v>770</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="42" t="s">
-        <v>426</v>
+      <c r="A59" t="s">
+        <v>771</v>
       </c>
       <c r="B59" t="s">
-        <v>490</v>
+        <v>772</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>427</v>
-      </c>
-      <c r="B60" t="s">
-        <v>492</v>
-      </c>
-      <c r="C60" t="s">
-        <v>493</v>
+        <v>773</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>428</v>
-      </c>
-      <c r="B61" t="s">
-        <v>494</v>
-      </c>
-      <c r="C61" t="s">
-        <v>493</v>
+        <v>774</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>429</v>
-      </c>
-      <c r="B62" t="s">
-        <v>495</v>
-      </c>
-      <c r="C62" t="s">
-        <v>493</v>
-      </c>
-      <c r="D62" t="s">
-        <v>496</v>
+        <v>775</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>430</v>
-      </c>
-      <c r="B63" t="s">
-        <v>497</v>
-      </c>
-      <c r="C63" t="s">
-        <v>493</v>
+        <v>776</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>431</v>
-      </c>
-      <c r="B64" t="s">
-        <v>498</v>
-      </c>
-      <c r="C64" t="s">
-        <v>493</v>
+        <v>777</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>432</v>
+        <v>184</v>
       </c>
       <c r="B65" t="s">
-        <v>500</v>
-      </c>
-      <c r="C65" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>433</v>
-      </c>
-      <c r="B66" t="s">
-        <v>491</v>
-      </c>
-      <c r="D66" t="s">
-        <v>511</v>
+        <v>778</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>434</v>
-      </c>
-      <c r="B67" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>545</v>
+      </c>
+      <c r="B68" t="s">
+        <v>546</v>
+      </c>
+      <c r="C68" t="s">
         <v>491</v>
       </c>
-      <c r="D67" t="s">
-        <v>510</v>
-      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="39" t="s">
-        <v>559</v>
+      <c r="A70" s="42" t="s">
+        <v>426</v>
       </c>
       <c r="B70" t="s">
-        <v>563</v>
+        <v>488</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>560</v>
+        <v>427</v>
+      </c>
+      <c r="B71" t="s">
+        <v>490</v>
+      </c>
+      <c r="C71" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>562</v>
+        <v>428</v>
+      </c>
+      <c r="B72" t="s">
+        <v>492</v>
+      </c>
+      <c r="C72" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>429</v>
+      </c>
+      <c r="B73" t="s">
+        <v>493</v>
+      </c>
+      <c r="C73" t="s">
+        <v>491</v>
+      </c>
+      <c r="D73" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>430</v>
+      </c>
+      <c r="B74" t="s">
+        <v>495</v>
+      </c>
+      <c r="C74" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>431</v>
+      </c>
+      <c r="B75" t="s">
+        <v>496</v>
+      </c>
+      <c r="C75" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>432</v>
+      </c>
+      <c r="B76" t="s">
+        <v>498</v>
+      </c>
+      <c r="C76" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>433</v>
+      </c>
+      <c r="B77" t="s">
+        <v>489</v>
+      </c>
+      <c r="D77" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>434</v>
+      </c>
+      <c r="B78" t="s">
+        <v>489</v>
+      </c>
+      <c r="D78" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="39" t="s">
+        <v>556</v>
+      </c>
+      <c r="B81" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>558</v>
+      </c>
+      <c r="B84" t="s">
         <v>561</v>
-      </c>
-      <c r="B73" t="s">
-        <v>564</v>
       </c>
     </row>
   </sheetData>

--- a/Инфраструктура Крона-Банк.xlsx
+++ b/Инфраструктура Крона-Банк.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="1725" windowWidth="21600" windowHeight="13560" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="5940" yWindow="1725" windowWidth="21600" windowHeight="13560" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="135" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="783">
   <si>
     <t>Имя</t>
   </si>
@@ -2402,6 +2402,15 @@
   </si>
   <si>
     <t>10.129.130.129</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">виртуалка </t>
+  </si>
+  <si>
+    <t>для тестов</t>
   </si>
 </sst>
 </file>
@@ -5745,8 +5754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G256"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B176" sqref="B176"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6773,6 +6782,15 @@
       <c r="A125" s="45" t="s">
         <v>649</v>
       </c>
+      <c r="B125" t="s">
+        <v>780</v>
+      </c>
+      <c r="C125" t="s">
+        <v>781</v>
+      </c>
+      <c r="D125" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="45" t="s">
@@ -7833,7 +7851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
